--- a/Översikt KALMAR.xlsx
+++ b/Översikt KALMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44237</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44245</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44785</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44489</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44476</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44558</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43643</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44057</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44979</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44517</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44575</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44876</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43640</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43719</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43796</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44785</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44802</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44896</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44951</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>45105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43370</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43383</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43605</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43680</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43927</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43928</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44069</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44103</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>44152</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44260</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>44279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44466</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44726</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>44830</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44915</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44928</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44949</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>45007</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>45042</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45044</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45063</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45167</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43321</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43321</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43321</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43321</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43321</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43322</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43322</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43322</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43322</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43322</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43325</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43325</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43325</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43325</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43325</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43325</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43325</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43325</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43325</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43325</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43325</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43325</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43325</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43325</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43326</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43326</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43345</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43347</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43356</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43356</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43367</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43367</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43383</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43389</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43395</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43405</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>43410</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>43418</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>43418</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>43423</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43430</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43430</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43430</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43430</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43430</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43430</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43430</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43431</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43434</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43434</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>43438</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>43439</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>43439</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>43445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>43446</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43451</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43451</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43469</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43472</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43473</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43480</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>43482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43488</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43488</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43494</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>43494</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43498</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43501</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43508</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43508</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43514</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43517</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43522</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43522</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>43531</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>43535</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43538</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>43545</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>43545</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43558</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43558</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43559</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43566</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43567</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43570</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43578</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43581</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43581</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43584</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43585</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43587</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43591</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43591</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43591</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43592</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43600</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43605</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>43606</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>43606</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>43612</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>43612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>43613</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>43613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>43613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>43613</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>43613</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43625</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>43629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>43634</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>43634</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>43640</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>43640</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>43640</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>43640</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>43643</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>43648</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>43656</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>43662</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>43668</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>43668</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>43668</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>43674</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>43675</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>43678</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>43679</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>43680</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43680</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>43680</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>43680</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>43681</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>43682</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>43682</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>43683</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>43683</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>43683</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43684</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43689</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43689</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43691</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>43691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43691</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>43691</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>43691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43691</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43692</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43693</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43696</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43698</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43698</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43699</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43699</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43702</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43703</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43705</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43705</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43712</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43712</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43712</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>43713</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43714</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43717</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>43717</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>43717</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>43717</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>43717</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>43718</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>43718</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>43718</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43718</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43719</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>43719</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>43720</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>43721</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43721</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43724</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43726</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43727</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43727</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43727</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43728</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43728</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43732</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43733</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43746</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43749</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43755</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43756</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43756</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43761</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43763</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43763</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43763</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43766</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43769</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43774</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43776</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43777</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43777</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43777</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43777</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43780</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43780</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43782</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43784</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43784</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43784</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43784</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43791</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43796</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>43796</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>43803</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>43803</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>43803</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>43815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>43815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43829</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43832</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43832</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43832</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43832</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43840</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>43844</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>43846</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>43846</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>43859</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43865</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>43865</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>43867</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>43867</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>43867</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>43871</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>43871</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>43872</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>43873</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>43873</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>43875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>43875</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>43880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>43881</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>43886</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>43887</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>43887</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>43887</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>43894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>43900</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>43907</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>43907</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>43909</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>43915</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>43916</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>43916</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>43917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>43929</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>43936</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43941</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43950</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43956</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43977</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43984</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43999</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44007</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44020</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44032</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44041</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44041</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44047</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>44047</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>44053</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>44053</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>44053</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>44053</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44055</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44055</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>44055</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>44055</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>44060</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>44060</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>44061</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>44061</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44061</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44062</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44062</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>44074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44075</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44075</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44077</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44082</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44082</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44084</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44089</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44089</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44089</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44090</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44095</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44095</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44095</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44098</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44098</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44104</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44104</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44105</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44105</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44109</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44110</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44110</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44112</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44112</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44119</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44120</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44126</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44131</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44136</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44138</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44139</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44140</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44141</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44144</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44145</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44145</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44147</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44151</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44151</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44151</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44151</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44151</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44154</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44159</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44160</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44178</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>44182</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44182</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>44186</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>44187</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>44188</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>44192</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44193</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44193</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44201</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44209</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44210</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44210</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44214</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44214</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44214</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44215</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44217</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44218</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44220</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44229</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44230</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44230</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44230</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44230</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44230</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44236</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>44236</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>44236</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>44236</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44238</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>44241</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>44243</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>44244</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>44246</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>44250</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>44264</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31450,7 +31450,7 @@
         <v>44264</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31507,7 +31507,7 @@
         <v>44267</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44271</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44271</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44271</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44273</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44277</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44285</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44287</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44302</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44302</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44312</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44320</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44322</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44327</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44336</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44345</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44351</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44356</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44356</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44357</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44357</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>44363</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>44369</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         <v>44371</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32932,7 +32932,7 @@
         <v>44375</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>44377</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>44379</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>44382</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>44385</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>44385</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>44385</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>44386</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>44386</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44405</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>44413</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44417</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44419</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44421</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44432</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44435</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44435</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44435</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44438</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44438</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44447</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44448</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44448</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44454</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44454</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44455</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44456</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44457</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44462</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44467</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44474</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44475</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44475</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>44476</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>44477</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>44477</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>44480</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44482</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44482</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44484</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44489</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44489</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44497</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44497</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44497</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44498</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44498</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44502</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44502</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44502</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44511</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44522</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44522</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44529</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44531</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44544</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44566</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44574</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44581</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>44586</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>44588</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>44595</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>44595</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36585,7 +36585,7 @@
         <v>44602</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36642,7 +36642,7 @@
         <v>44615</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>44617</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36756,7 +36756,7 @@
         <v>44617</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36813,7 +36813,7 @@
         <v>44620</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36870,7 +36870,7 @@
         <v>44623</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44625</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44629</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37041,7 +37041,7 @@
         <v>44629</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44636</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37155,7 +37155,7 @@
         <v>44643</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37212,7 +37212,7 @@
         <v>44679</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         <v>44684</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37326,7 +37326,7 @@
         <v>44712</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37383,7 +37383,7 @@
         <v>44732</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37440,7 +37440,7 @@
         <v>44733</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         <v>44740</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37554,7 +37554,7 @@
         <v>44740</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37611,7 +37611,7 @@
         <v>44784</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44784</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37725,7 +37725,7 @@
         <v>44790</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37782,7 +37782,7 @@
         <v>44796</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44796</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37896,7 +37896,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44810</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44810</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44810</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44813</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44818</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44818</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38300,7 +38300,7 @@
         <v>44818</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38357,7 +38357,7 @@
         <v>44819</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38414,7 +38414,7 @@
         <v>44820</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44820</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44823</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44823</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44830</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44831</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38766,7 +38766,7 @@
         <v>44838</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38823,7 +38823,7 @@
         <v>44841</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38880,7 +38880,7 @@
         <v>44846</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38937,7 +38937,7 @@
         <v>44848</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38994,7 +38994,7 @@
         <v>44852</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
         <v>44855</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39113,7 +39113,7 @@
         <v>44858</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39170,7 +39170,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         <v>44861</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39284,7 +39284,7 @@
         <v>44862</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44864</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44904</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44909</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44909</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44914</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44924</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44924</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44924</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44924</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40087,7 +40087,7 @@
         <v>44931</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40144,7 +40144,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40201,7 +40201,7 @@
         <v>44949</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40258,7 +40258,7 @@
         <v>44949</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40315,7 +40315,7 @@
         <v>44963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44965</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40486,7 +40486,7 @@
         <v>44965</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44970</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44971</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40657,7 +40657,7 @@
         <v>44979</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>44979</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>44984</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40828,7 +40828,7 @@
         <v>44988</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40885,7 +40885,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>45001</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         <v>45007</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         <v>45007</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41227,7 +41227,7 @@
         <v>45019</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41284,7 +41284,7 @@
         <v>45027</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41341,7 +41341,7 @@
         <v>45028</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>45036</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41455,7 +41455,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41512,7 +41512,7 @@
         <v>45042</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>45044</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>45044</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>45050</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>45055</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>45061</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41854,7 +41854,7 @@
         <v>45063</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>45067</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45070</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45070</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>45070</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42159,7 +42159,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42216,7 +42216,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42273,7 +42273,7 @@
         <v>45071</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42330,7 +42330,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>45075</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42444,7 +42444,7 @@
         <v>45075</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>45075</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42615,7 +42615,7 @@
         <v>45076</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45082</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42734,7 +42734,7 @@
         <v>45083</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42791,7 +42791,7 @@
         <v>45086</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>45090</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42905,7 +42905,7 @@
         <v>45090</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42962,7 +42962,7 @@
         <v>45090</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45091</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43076,7 +43076,7 @@
         <v>45091</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>45091</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>45091</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43247,7 +43247,7 @@
         <v>45093</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43304,7 +43304,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43361,7 +43361,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>45097</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43475,7 +43475,7 @@
         <v>45097</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43532,7 +43532,7 @@
         <v>45099</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45099</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45099</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45103</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>45103</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>45104</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>45104</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43936,7 +43936,7 @@
         <v>45105</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43993,7 +43993,7 @@
         <v>45107</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44050,7 +44050,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44107,7 +44107,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44164,7 +44164,7 @@
         <v>45113</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44221,7 +44221,7 @@
         <v>45114</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44278,7 +44278,7 @@
         <v>45114</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>45114</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>45118</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>45118</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>45118</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>45119</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>45119</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44848,7 +44848,7 @@
         <v>45119</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44905,7 +44905,7 @@
         <v>45124</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44962,7 +44962,7 @@
         <v>45126</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>45126</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>45141</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>45153</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>45159</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>45161</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45304,7 +45304,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45361,7 +45361,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>45167</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45475,7 +45475,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>

--- a/Översikt KALMAR.xlsx
+++ b/Översikt KALMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44237</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44245</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44785</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44489</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44476</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44558</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43643</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44057</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44979</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44517</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44575</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44876</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43640</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43719</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43796</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44785</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44802</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44896</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44951</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>45105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43370</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43383</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43605</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43680</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43927</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43928</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44069</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44103</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>44152</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44260</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>44279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44466</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44726</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>44830</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44915</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44928</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44949</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>45007</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>45042</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45044</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45063</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45167</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43321</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43321</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43321</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43321</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43321</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43322</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43322</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43322</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43322</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43322</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43325</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43325</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43325</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43325</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43325</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43325</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43325</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43325</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43325</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43325</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43325</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43325</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43325</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43325</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43326</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43326</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43345</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43347</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43356</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43356</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43367</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43367</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43383</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43389</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43395</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43405</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>43410</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>43418</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>43418</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>43423</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43430</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43430</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43430</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43430</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43430</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43430</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43430</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43431</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43434</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43434</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>43438</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>43439</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>43439</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>43445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>43446</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43451</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43451</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43469</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43472</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43473</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43480</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>43482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43488</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43488</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43494</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>43494</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43498</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43501</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43508</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43508</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43514</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43517</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43522</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43522</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>43531</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>43535</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43538</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>43545</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>43545</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43558</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43558</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43559</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43566</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43567</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43570</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43578</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43581</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43581</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43584</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43585</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43587</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43591</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43591</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43591</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43592</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43600</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43605</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>43606</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>43606</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>43612</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>43612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>43613</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>43613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>43613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>43613</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>43613</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43625</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>43629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>43634</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>43634</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>43640</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>43640</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>43640</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>43640</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>43643</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>43648</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>43656</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>43662</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>43668</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>43668</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>43668</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>43674</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>43675</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>43678</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>43679</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>43680</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43680</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>43680</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>43680</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>43681</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>43682</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>43682</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>43683</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>43683</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>43683</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43684</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43689</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43689</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43691</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>43691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43691</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>43691</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>43691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43691</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43692</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43693</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43696</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43698</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43698</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43699</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43699</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43702</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43703</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43705</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43705</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43712</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43712</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43712</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>43713</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43714</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43717</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>43717</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>43717</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>43717</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>43717</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>43718</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>43718</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>43718</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43718</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43719</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>43719</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>43720</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>43721</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43721</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43724</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43726</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43727</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43727</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43727</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43728</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43728</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43732</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43733</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43746</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43749</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43755</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43756</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43756</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43761</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43763</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43763</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43763</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43766</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43769</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43774</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43776</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43777</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43777</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43777</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43777</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43780</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43780</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43782</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43784</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43784</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43784</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43784</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43791</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43796</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>43796</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>43803</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>43803</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>43803</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>43815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>43815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43829</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43832</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43832</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43832</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43832</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43840</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>43844</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>43846</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>43846</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>43859</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43865</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>43865</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>43867</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>43867</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>43867</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>43871</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>43871</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>43872</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>43873</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>43873</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>43875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>43875</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>43880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>43881</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>43886</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>43887</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>43887</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>43887</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>43894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>43900</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>43907</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>43907</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>43909</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>43915</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>43916</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>43916</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>43917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>43929</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>43936</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43941</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43950</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43956</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43977</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43984</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43999</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44007</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44020</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44032</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44041</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44041</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44047</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>44047</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>44053</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>44053</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>44053</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>44053</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44055</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44055</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>44055</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>44055</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>44060</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>44060</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>44061</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>44061</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44061</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44062</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44062</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>44074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44075</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44075</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44077</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44082</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44082</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44084</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44089</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44089</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44089</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44090</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44095</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44095</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44095</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44098</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44098</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44104</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44104</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44105</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44105</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44109</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44110</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44110</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44112</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44112</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44119</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44120</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44126</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44131</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44136</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44138</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44139</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44140</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44141</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44144</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44145</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44145</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44147</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44151</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44151</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44151</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44151</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44151</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44154</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44159</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44160</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44178</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>44182</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44182</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>44186</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>44187</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>44188</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>44192</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44193</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44193</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44201</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44209</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44210</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44210</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44214</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44214</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44214</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44215</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44217</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44218</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44220</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44229</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44230</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44230</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44230</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44230</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44230</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44236</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>44236</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>44236</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>44236</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44238</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>44241</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>44243</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>44244</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>44246</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>44250</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>44264</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31450,7 +31450,7 @@
         <v>44264</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31507,7 +31507,7 @@
         <v>44267</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44271</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44271</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44271</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44273</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44277</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44285</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44287</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44302</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44302</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44312</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44320</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44322</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44327</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44336</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44345</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44351</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44356</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44356</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44357</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44357</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>44363</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>44369</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         <v>44371</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32932,7 +32932,7 @@
         <v>44375</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>44377</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>44379</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>44382</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>44385</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>44385</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>44385</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>44386</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>44386</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44405</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>44413</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44417</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44419</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44421</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44432</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44435</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44435</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44435</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44438</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44438</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44447</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44448</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44448</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44454</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44454</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44455</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44456</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44457</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44462</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44467</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44474</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44475</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44475</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>44476</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>44477</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>44477</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>44480</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44482</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44482</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44484</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44489</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44489</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44497</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44497</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44497</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44498</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44498</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44502</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44502</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44502</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44511</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44522</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44522</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44529</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44531</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44544</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44566</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44574</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44581</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>44586</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>44588</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>44595</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>44595</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36585,7 +36585,7 @@
         <v>44602</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36642,7 +36642,7 @@
         <v>44615</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>44617</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36756,7 +36756,7 @@
         <v>44617</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36813,7 +36813,7 @@
         <v>44620</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36870,7 +36870,7 @@
         <v>44623</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44625</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44629</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37041,7 +37041,7 @@
         <v>44629</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44636</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37155,7 +37155,7 @@
         <v>44643</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37212,7 +37212,7 @@
         <v>44679</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         <v>44684</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37326,7 +37326,7 @@
         <v>44712</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37383,7 +37383,7 @@
         <v>44732</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37440,7 +37440,7 @@
         <v>44733</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         <v>44740</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37554,7 +37554,7 @@
         <v>44740</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37611,7 +37611,7 @@
         <v>44784</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44784</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37725,7 +37725,7 @@
         <v>44790</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37782,7 +37782,7 @@
         <v>44796</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44796</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37896,7 +37896,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44810</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44810</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44810</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44813</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44818</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44818</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38300,7 +38300,7 @@
         <v>44818</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38357,7 +38357,7 @@
         <v>44819</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38414,7 +38414,7 @@
         <v>44820</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44820</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44823</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44823</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44830</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44831</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38766,7 +38766,7 @@
         <v>44838</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38823,7 +38823,7 @@
         <v>44841</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38880,7 +38880,7 @@
         <v>44846</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38937,7 +38937,7 @@
         <v>44848</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38994,7 +38994,7 @@
         <v>44852</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
         <v>44855</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39113,7 +39113,7 @@
         <v>44858</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39170,7 +39170,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         <v>44861</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39284,7 +39284,7 @@
         <v>44862</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44864</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44904</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44909</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44909</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44914</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44924</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44924</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44924</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44924</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40087,7 +40087,7 @@
         <v>44931</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40144,7 +40144,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40201,7 +40201,7 @@
         <v>44949</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40258,7 +40258,7 @@
         <v>44949</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40315,7 +40315,7 @@
         <v>44963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44965</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40486,7 +40486,7 @@
         <v>44965</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44970</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44971</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40657,7 +40657,7 @@
         <v>44979</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>44979</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>44984</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40828,7 +40828,7 @@
         <v>44988</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40885,7 +40885,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>45001</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         <v>45007</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         <v>45007</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41227,7 +41227,7 @@
         <v>45019</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41284,7 +41284,7 @@
         <v>45027</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41341,7 +41341,7 @@
         <v>45028</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>45036</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41455,7 +41455,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41512,7 +41512,7 @@
         <v>45042</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>45044</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>45044</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>45050</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>45055</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>45061</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41854,7 +41854,7 @@
         <v>45063</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>45067</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45070</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45070</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>45070</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42159,7 +42159,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42216,7 +42216,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42273,7 +42273,7 @@
         <v>45071</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42330,7 +42330,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>45075</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42444,7 +42444,7 @@
         <v>45075</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>45075</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42615,7 +42615,7 @@
         <v>45076</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45082</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42734,7 +42734,7 @@
         <v>45083</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42791,7 +42791,7 @@
         <v>45086</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>45090</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42905,7 +42905,7 @@
         <v>45090</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42962,7 +42962,7 @@
         <v>45090</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45091</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43076,7 +43076,7 @@
         <v>45091</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>45091</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>45091</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43247,7 +43247,7 @@
         <v>45093</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43304,7 +43304,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43361,7 +43361,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>45097</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43475,7 +43475,7 @@
         <v>45097</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43532,7 +43532,7 @@
         <v>45099</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45099</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45099</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45103</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>45103</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>45104</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>45104</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43936,7 +43936,7 @@
         <v>45105</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43993,7 +43993,7 @@
         <v>45107</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44050,7 +44050,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44107,7 +44107,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44164,7 +44164,7 @@
         <v>45113</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44221,7 +44221,7 @@
         <v>45114</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44278,7 +44278,7 @@
         <v>45114</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>45114</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>45118</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>45118</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>45118</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>45119</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>45119</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44848,7 +44848,7 @@
         <v>45119</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44905,7 +44905,7 @@
         <v>45124</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44962,7 +44962,7 @@
         <v>45126</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>45126</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>45141</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>45153</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>45159</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>45161</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45304,7 +45304,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45361,7 +45361,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>45167</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45475,7 +45475,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>

--- a/Översikt KALMAR.xlsx
+++ b/Översikt KALMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44237</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44245</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44785</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44489</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44476</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44558</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43643</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44057</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44979</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44517</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44575</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44876</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43640</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43719</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43796</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44785</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44802</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44896</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44951</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>45105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43370</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43383</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43605</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43680</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43927</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43928</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44069</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44103</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>44152</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44260</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>44279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44466</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44726</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>44830</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44915</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44928</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44949</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>45007</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>45042</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45044</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45063</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45167</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43321</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43321</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43321</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43321</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43321</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43322</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43322</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43322</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43322</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43322</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43325</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43325</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43325</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43325</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43325</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43325</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43325</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43325</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43325</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43325</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43325</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43325</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43325</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43325</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43326</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43326</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43345</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43347</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43356</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43356</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43367</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43367</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43383</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43389</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43395</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43405</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>43410</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>43418</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>43418</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>43423</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43430</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43430</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43430</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43430</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43430</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43430</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43430</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43431</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43434</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43434</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>43438</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>43439</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>43439</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>43445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>43446</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43451</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43451</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43469</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43472</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43473</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43480</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>43482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43488</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43488</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43494</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>43494</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43498</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43501</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43508</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43508</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43514</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43517</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43522</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43522</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>43531</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>43535</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43538</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>43545</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>43545</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43558</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43558</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43559</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43566</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43567</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43570</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43578</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43581</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43581</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43584</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43585</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43587</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43591</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43591</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43591</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43592</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43600</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43605</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>43606</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>43606</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>43612</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>43612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>43613</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>43613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>43613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>43613</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>43613</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43625</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>43629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>43634</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>43634</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>43640</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>43640</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>43640</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>43640</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>43643</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>43648</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>43656</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>43662</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>43668</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>43668</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>43668</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>43674</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>43675</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>43678</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>43679</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>43680</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43680</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>43680</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>43680</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>43681</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>43682</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>43682</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>43683</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>43683</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>43683</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43684</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43689</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43689</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43691</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>43691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43691</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>43691</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>43691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43691</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43692</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43693</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43696</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43698</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43698</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43699</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43699</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43702</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43703</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43705</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43705</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43712</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43712</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43712</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>43713</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43714</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43717</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>43717</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>43717</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>43717</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>43717</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>43718</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>43718</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>43718</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43718</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43719</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>43719</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>43720</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>43721</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43721</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43724</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43726</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43727</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43727</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43727</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43728</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43728</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43732</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43733</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43746</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43749</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43755</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43756</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43756</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43761</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43763</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43763</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43763</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43766</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43769</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43774</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43776</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43777</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43777</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43777</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43777</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43780</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43780</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43782</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43784</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43784</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43784</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43784</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43791</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43796</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>43796</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>43803</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>43803</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>43803</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>43815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>43815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43829</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43832</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43832</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43832</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43832</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43840</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>43844</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>43846</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>43846</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>43859</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43865</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>43865</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>43867</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>43867</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>43867</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>43871</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>43871</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>43872</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>43873</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>43873</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>43875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>43875</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>43880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>43881</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>43886</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>43887</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>43887</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>43887</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>43894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>43900</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>43907</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>43907</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>43909</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>43915</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>43916</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>43916</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>43917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>43929</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>43936</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43941</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43950</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43956</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43977</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43984</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43999</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44007</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44020</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44032</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44041</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44041</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44047</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>44047</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>44053</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>44053</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>44053</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>44053</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44055</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44055</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>44055</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>44055</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>44060</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>44060</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>44061</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>44061</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44061</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44062</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44062</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>44074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44075</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44075</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44077</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44082</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44082</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44084</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44089</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44089</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44089</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44090</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44095</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44095</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44095</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44098</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44098</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44104</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44104</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44105</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44105</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44109</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44110</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44110</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44112</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44112</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44119</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44120</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44126</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44131</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44136</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44138</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44139</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44140</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44141</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44144</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44145</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44145</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44147</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44151</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44151</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44151</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44151</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44151</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44154</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44159</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44160</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44178</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>44182</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44182</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>44186</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>44187</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>44188</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>44192</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44193</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44193</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44201</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44209</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44210</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44210</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44214</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44214</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44214</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44215</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44217</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44218</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44220</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44229</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44230</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44230</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44230</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44230</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44230</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44236</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>44236</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>44236</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>44236</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44238</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>44241</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>44243</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>44244</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>44246</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>44250</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>44264</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31450,7 +31450,7 @@
         <v>44264</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31507,7 +31507,7 @@
         <v>44267</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44271</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44271</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44271</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44273</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44277</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44285</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44287</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44302</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44302</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44312</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44320</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44322</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44327</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44336</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44345</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44351</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44356</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44356</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44357</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44357</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>44363</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>44369</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         <v>44371</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32932,7 +32932,7 @@
         <v>44375</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>44377</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>44379</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>44382</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>44385</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>44385</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>44385</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>44386</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>44386</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44405</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>44413</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44417</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44419</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44421</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44432</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44435</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44435</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44435</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44438</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44438</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44447</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44448</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44448</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44454</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44454</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44455</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44456</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44457</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44462</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44467</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44474</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44475</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44475</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>44476</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>44477</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>44477</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>44480</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44482</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44482</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44484</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44489</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44489</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44497</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44497</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44497</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44498</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44498</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44502</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44502</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44502</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44511</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44522</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44522</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44529</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44531</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44544</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44566</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44574</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44581</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>44586</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>44588</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>44595</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>44595</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36585,7 +36585,7 @@
         <v>44602</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36642,7 +36642,7 @@
         <v>44615</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>44617</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36756,7 +36756,7 @@
         <v>44617</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36813,7 +36813,7 @@
         <v>44620</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36870,7 +36870,7 @@
         <v>44623</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44625</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44629</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37041,7 +37041,7 @@
         <v>44629</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44636</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37155,7 +37155,7 @@
         <v>44643</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37212,7 +37212,7 @@
         <v>44679</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         <v>44684</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37326,7 +37326,7 @@
         <v>44712</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37383,7 +37383,7 @@
         <v>44732</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37440,7 +37440,7 @@
         <v>44733</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         <v>44740</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37554,7 +37554,7 @@
         <v>44740</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37611,7 +37611,7 @@
         <v>44784</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44784</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37725,7 +37725,7 @@
         <v>44790</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37782,7 +37782,7 @@
         <v>44796</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44796</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37896,7 +37896,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44810</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44810</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44810</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44813</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44818</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44818</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38300,7 +38300,7 @@
         <v>44818</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38357,7 +38357,7 @@
         <v>44819</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38414,7 +38414,7 @@
         <v>44820</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44820</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44823</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44823</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44830</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44831</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38766,7 +38766,7 @@
         <v>44838</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38823,7 +38823,7 @@
         <v>44841</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38880,7 +38880,7 @@
         <v>44846</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38937,7 +38937,7 @@
         <v>44848</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38994,7 +38994,7 @@
         <v>44852</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
         <v>44855</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39113,7 +39113,7 @@
         <v>44858</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39170,7 +39170,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         <v>44861</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39284,7 +39284,7 @@
         <v>44862</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44864</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44904</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44909</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44909</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44914</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44924</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44924</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44924</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44924</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40087,7 +40087,7 @@
         <v>44931</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40144,7 +40144,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40201,7 +40201,7 @@
         <v>44949</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40258,7 +40258,7 @@
         <v>44949</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40315,7 +40315,7 @@
         <v>44963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44965</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40486,7 +40486,7 @@
         <v>44965</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44970</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44971</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40657,7 +40657,7 @@
         <v>44979</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>44979</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>44984</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40828,7 +40828,7 @@
         <v>44988</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40885,7 +40885,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>45001</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         <v>45007</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         <v>45007</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41227,7 +41227,7 @@
         <v>45019</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41284,7 +41284,7 @@
         <v>45027</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41341,7 +41341,7 @@
         <v>45028</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>45036</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41455,7 +41455,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41512,7 +41512,7 @@
         <v>45042</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>45044</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>45044</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>45050</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>45055</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>45061</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41854,7 +41854,7 @@
         <v>45063</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>45067</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45070</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45070</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>45070</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42159,7 +42159,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42216,7 +42216,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42273,7 +42273,7 @@
         <v>45071</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42330,7 +42330,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>45075</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42444,7 +42444,7 @@
         <v>45075</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>45075</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42615,7 +42615,7 @@
         <v>45076</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45082</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42734,7 +42734,7 @@
         <v>45083</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42791,7 +42791,7 @@
         <v>45086</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>45090</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42905,7 +42905,7 @@
         <v>45090</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42962,7 +42962,7 @@
         <v>45090</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45091</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43076,7 +43076,7 @@
         <v>45091</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>45091</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>45091</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43247,7 +43247,7 @@
         <v>45093</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43304,7 +43304,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43361,7 +43361,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>45097</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43475,7 +43475,7 @@
         <v>45097</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43532,7 +43532,7 @@
         <v>45099</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45099</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45099</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45103</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>45103</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>45104</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>45104</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43936,7 +43936,7 @@
         <v>45105</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43993,7 +43993,7 @@
         <v>45107</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44050,7 +44050,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44107,7 +44107,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44164,7 +44164,7 @@
         <v>45113</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44221,7 +44221,7 @@
         <v>45114</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44278,7 +44278,7 @@
         <v>45114</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>45114</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>45118</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>45118</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>45118</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>45119</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>45119</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44848,7 +44848,7 @@
         <v>45119</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44905,7 +44905,7 @@
         <v>45124</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44962,7 +44962,7 @@
         <v>45126</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>45126</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>45141</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>45153</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>45159</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>45161</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45304,7 +45304,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45361,7 +45361,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>45167</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45475,7 +45475,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>

--- a/Översikt KALMAR.xlsx
+++ b/Översikt KALMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44237</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44245</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44785</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44489</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44476</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44558</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43643</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44057</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44979</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44517</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44575</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44876</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43640</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43719</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43796</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44785</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44802</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44896</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44951</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>45105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43370</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43383</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43605</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43680</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43927</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43928</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44069</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44103</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>44152</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44260</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>44279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44466</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44726</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>44830</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44915</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44928</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44949</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>45007</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>45042</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45044</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45063</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45167</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43321</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43321</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43321</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43321</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43321</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43322</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43322</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43322</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43322</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43322</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43325</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43325</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43325</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43325</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43325</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43325</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43325</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43325</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43325</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43325</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43325</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43325</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43325</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43325</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43326</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43326</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43345</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43347</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43356</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43356</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43367</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43367</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43383</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43389</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43395</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43405</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>43410</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>43418</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>43418</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>43423</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43430</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43430</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43430</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43430</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43430</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43430</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43430</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43431</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43434</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43434</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>43438</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>43439</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>43439</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>43445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>43446</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43451</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43451</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43469</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43472</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43473</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43480</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>43482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43488</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43488</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43494</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>43494</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43498</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43501</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43508</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43508</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43514</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43517</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43522</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43522</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>43531</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>43535</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43538</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>43545</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>43545</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43558</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43558</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43559</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43566</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43567</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43570</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43578</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43581</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43581</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43584</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43585</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43587</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43591</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43591</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43591</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43592</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43600</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43605</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>43606</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>43606</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>43612</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>43612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>43613</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>43613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>43613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>43613</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>43613</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43625</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>43629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>43634</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>43634</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>43640</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>43640</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>43640</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>43640</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>43643</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>43648</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>43656</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>43662</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>43668</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>43668</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>43668</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>43674</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>43675</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>43678</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>43679</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>43680</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43680</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>43680</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>43680</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>43681</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>43682</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>43682</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>43683</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>43683</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>43683</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43684</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43689</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43689</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43691</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>43691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43691</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>43691</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>43691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43691</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43692</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43693</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43696</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43698</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43698</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43699</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43699</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43702</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43703</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43705</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43705</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43712</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43712</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43712</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>43713</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43714</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43717</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>43717</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>43717</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>43717</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>43717</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>43718</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>43718</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>43718</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43718</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43719</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>43719</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>43720</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>43721</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43721</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43724</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43726</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43727</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43727</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43727</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43728</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43728</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43732</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43733</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43746</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43749</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43755</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43756</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43756</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43761</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43763</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43763</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43763</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43766</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43769</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43774</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43776</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43777</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43777</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43777</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43777</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43780</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43780</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43782</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43784</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43784</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43784</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43784</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43791</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43796</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>43796</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>43803</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>43803</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>43803</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>43815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>43815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43829</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43832</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43832</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43832</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43832</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43840</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>43844</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>43846</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>43846</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>43859</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43865</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>43865</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>43867</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>43867</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>43867</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>43871</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>43871</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>43872</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>43873</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>43873</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>43875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>43875</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>43880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>43881</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>43886</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>43887</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>43887</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>43887</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>43894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>43900</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>43907</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>43907</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>43909</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>43915</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>43916</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>43916</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>43917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>43929</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>43936</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43941</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43950</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43956</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43977</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43984</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43999</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44007</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44020</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44032</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44041</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44041</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44047</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>44047</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>44053</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>44053</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>44053</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>44053</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44055</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44055</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>44055</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>44055</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>44060</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>44060</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>44061</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>44061</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44061</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44062</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44062</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>44074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44075</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44075</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44077</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44082</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44082</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44084</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44089</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44089</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44089</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44090</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44095</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44095</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44095</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44098</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44098</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44104</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44104</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44105</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44105</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44109</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44110</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44110</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44112</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44112</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44119</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44120</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44126</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44131</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44136</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44138</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44139</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44140</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44141</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44144</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44145</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44145</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44147</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44151</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44151</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44151</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44151</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44151</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44154</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44159</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44160</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44178</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>44182</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44182</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>44186</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>44187</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>44188</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>44192</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44193</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44193</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44201</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44209</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44210</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44210</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44214</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44214</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44214</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44215</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44217</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44218</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44220</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44229</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44230</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44230</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44230</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44230</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44230</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44236</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>44236</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>44236</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>44236</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44238</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>44241</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>44243</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>44244</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>44246</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>44250</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>44264</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31450,7 +31450,7 @@
         <v>44264</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31507,7 +31507,7 @@
         <v>44267</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44271</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44271</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44271</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44273</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44277</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44285</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44287</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44302</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44302</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44312</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44320</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44322</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44327</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44336</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44345</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44351</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44356</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44356</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44357</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44357</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>44363</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>44369</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         <v>44371</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32932,7 +32932,7 @@
         <v>44375</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>44377</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>44379</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>44382</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>44385</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>44385</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>44385</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>44386</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>44386</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44405</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>44413</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44417</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44419</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44421</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44432</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44435</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44435</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44435</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44438</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44438</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44447</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44448</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44448</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44454</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44454</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44455</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44456</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44457</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44462</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44467</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44474</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44475</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44475</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>44476</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>44477</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>44477</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>44480</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44482</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44482</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44484</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44489</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44489</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44497</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44497</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44497</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44498</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44498</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44502</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44502</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44502</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44511</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44522</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44522</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44529</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44531</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44544</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44566</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44574</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44581</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>44586</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>44588</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>44595</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>44595</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36585,7 +36585,7 @@
         <v>44602</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36642,7 +36642,7 @@
         <v>44615</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>44617</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36756,7 +36756,7 @@
         <v>44617</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36813,7 +36813,7 @@
         <v>44620</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36870,7 +36870,7 @@
         <v>44623</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44625</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44629</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37041,7 +37041,7 @@
         <v>44629</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44636</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37155,7 +37155,7 @@
         <v>44643</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37212,7 +37212,7 @@
         <v>44679</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         <v>44684</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37326,7 +37326,7 @@
         <v>44712</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37383,7 +37383,7 @@
         <v>44732</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37440,7 +37440,7 @@
         <v>44733</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         <v>44740</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37554,7 +37554,7 @@
         <v>44740</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37611,7 +37611,7 @@
         <v>44784</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44784</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37725,7 +37725,7 @@
         <v>44790</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37782,7 +37782,7 @@
         <v>44796</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44796</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37896,7 +37896,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44810</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44810</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44810</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44813</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44818</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44818</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38300,7 +38300,7 @@
         <v>44818</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38357,7 +38357,7 @@
         <v>44819</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38414,7 +38414,7 @@
         <v>44820</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44820</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44823</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44823</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44830</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44831</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38766,7 +38766,7 @@
         <v>44838</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38823,7 +38823,7 @@
         <v>44841</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38880,7 +38880,7 @@
         <v>44846</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38937,7 +38937,7 @@
         <v>44848</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38994,7 +38994,7 @@
         <v>44852</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
         <v>44855</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39113,7 +39113,7 @@
         <v>44858</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39170,7 +39170,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         <v>44861</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39284,7 +39284,7 @@
         <v>44862</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44864</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44904</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44909</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44909</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44914</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44924</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44924</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44924</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44924</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40087,7 +40087,7 @@
         <v>44931</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40144,7 +40144,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40201,7 +40201,7 @@
         <v>44949</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40258,7 +40258,7 @@
         <v>44949</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40315,7 +40315,7 @@
         <v>44963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44965</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40486,7 +40486,7 @@
         <v>44965</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44970</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44971</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40657,7 +40657,7 @@
         <v>44979</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>44979</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>44984</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40828,7 +40828,7 @@
         <v>44988</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40885,7 +40885,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>45001</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         <v>45007</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         <v>45007</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41227,7 +41227,7 @@
         <v>45019</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41284,7 +41284,7 @@
         <v>45027</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41341,7 +41341,7 @@
         <v>45028</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>45036</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41455,7 +41455,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41512,7 +41512,7 @@
         <v>45042</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>45044</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>45044</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>45050</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>45055</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>45061</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41854,7 +41854,7 @@
         <v>45063</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>45067</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45070</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45070</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>45070</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42159,7 +42159,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42216,7 +42216,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42273,7 +42273,7 @@
         <v>45071</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42330,7 +42330,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>45075</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42444,7 +42444,7 @@
         <v>45075</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>45075</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42615,7 +42615,7 @@
         <v>45076</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45082</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42734,7 +42734,7 @@
         <v>45083</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42791,7 +42791,7 @@
         <v>45086</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>45090</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42905,7 +42905,7 @@
         <v>45090</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42962,7 +42962,7 @@
         <v>45090</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45091</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43076,7 +43076,7 @@
         <v>45091</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>45091</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>45091</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43247,7 +43247,7 @@
         <v>45093</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43304,7 +43304,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43361,7 +43361,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>45097</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43475,7 +43475,7 @@
         <v>45097</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43532,7 +43532,7 @@
         <v>45099</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45099</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45099</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45103</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>45103</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>45104</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>45104</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43936,7 +43936,7 @@
         <v>45105</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43993,7 +43993,7 @@
         <v>45107</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44050,7 +44050,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44107,7 +44107,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44164,7 +44164,7 @@
         <v>45113</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44221,7 +44221,7 @@
         <v>45114</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44278,7 +44278,7 @@
         <v>45114</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>45114</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>45118</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>45118</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>45118</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>45119</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>45119</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44848,7 +44848,7 @@
         <v>45119</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44905,7 +44905,7 @@
         <v>45124</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44962,7 +44962,7 @@
         <v>45126</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>45126</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>45141</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>45153</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>45159</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>45161</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45304,7 +45304,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45361,7 +45361,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>45167</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45475,7 +45475,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>

--- a/Översikt KALMAR.xlsx
+++ b/Översikt KALMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44237</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44245</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44785</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44489</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44476</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44558</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43643</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44057</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44979</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44517</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44575</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44876</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43640</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43719</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43796</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44785</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44802</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44896</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44951</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>45105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43370</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43383</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43605</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43680</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43927</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43928</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44069</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44103</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>44152</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44260</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>44279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44466</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44726</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>44830</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44915</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44928</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44949</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>45007</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>45042</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45044</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45063</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45167</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43321</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43321</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43321</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43321</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43321</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43322</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43322</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43322</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43322</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43322</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43325</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43325</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43325</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43325</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43325</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43325</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43325</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43325</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43325</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43325</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43325</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43325</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43325</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43325</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43326</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43326</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43345</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43347</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43356</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43356</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43367</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43367</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43383</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43389</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43395</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43405</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>43410</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>43418</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>43418</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>43423</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43430</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43430</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43430</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43430</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43430</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43430</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43430</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43431</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43434</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43434</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>43438</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>43439</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>43439</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>43445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>43446</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43451</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43451</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43469</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43472</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43473</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43480</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>43482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43488</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43488</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43494</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>43494</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43498</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43501</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43508</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43508</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43514</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43517</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43522</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43522</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>43531</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>43535</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43538</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>43545</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>43545</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43558</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43558</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43559</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43566</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43567</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43570</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43578</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43581</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43581</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43584</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43585</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43587</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43591</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43591</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43591</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43592</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43600</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43605</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>43606</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>43606</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>43612</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>43612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>43613</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>43613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>43613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>43613</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>43613</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43625</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>43629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>43634</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>43634</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>43640</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>43640</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>43640</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>43640</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>43643</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>43648</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>43656</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>43662</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>43668</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>43668</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>43668</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>43674</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>43675</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>43678</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>43679</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>43680</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43680</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>43680</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>43680</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>43681</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>43682</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>43682</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>43683</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>43683</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>43683</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43684</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43689</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43689</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43691</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>43691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43691</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>43691</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>43691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43691</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43692</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43693</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43696</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43698</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43698</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43699</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43699</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43702</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43703</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43705</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43705</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43712</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43712</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43712</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>43713</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43714</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43717</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>43717</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>43717</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>43717</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>43717</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>43718</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>43718</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>43718</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43718</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43719</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>43719</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>43720</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>43721</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43721</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43724</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43726</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43727</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43727</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43727</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43728</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43728</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43732</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43733</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43746</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43749</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43755</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43756</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43756</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43761</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43763</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43763</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43763</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43766</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43769</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43774</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43776</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43777</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43777</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43777</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43777</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43780</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43780</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43782</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43784</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43784</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43784</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43784</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43791</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43796</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>43796</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>43803</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>43803</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>43803</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>43815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>43815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43829</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43832</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43832</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43832</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43832</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43840</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>43844</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>43846</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>43846</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>43859</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43865</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>43865</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>43867</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>43867</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>43867</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>43871</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>43871</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>43872</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>43873</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>43873</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>43875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>43875</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>43880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>43881</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>43886</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>43887</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>43887</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>43887</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>43894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>43900</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>43907</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>43907</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>43909</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>43915</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>43916</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>43916</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>43917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>43929</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>43936</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43941</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43950</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43956</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43977</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43984</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43999</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44007</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44020</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44032</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44041</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44041</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44047</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>44047</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>44053</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>44053</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>44053</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>44053</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44055</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44055</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>44055</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>44055</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>44060</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>44060</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>44061</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>44061</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44061</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44062</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44062</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>44074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44075</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44075</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44077</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44082</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44082</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44084</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44089</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44089</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44089</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44090</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44095</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44095</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44095</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44098</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44098</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44104</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44104</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44105</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44105</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44109</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44110</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44110</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44112</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44112</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44119</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44120</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44126</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44131</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44136</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44138</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44139</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44140</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44141</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44144</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44145</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44145</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44147</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44151</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44151</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44151</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44151</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44151</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44154</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44159</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44160</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44178</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>44182</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44182</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>44186</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>44187</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>44188</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>44192</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44193</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44193</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44201</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44209</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44210</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44210</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44214</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44214</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44214</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44215</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44217</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44218</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44220</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44229</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44230</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44230</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44230</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44230</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44230</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44236</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>44236</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>44236</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>44236</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44238</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>44241</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>44243</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>44244</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>44246</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>44250</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>44264</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31450,7 +31450,7 @@
         <v>44264</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31507,7 +31507,7 @@
         <v>44267</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44271</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44271</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44271</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44273</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44277</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44285</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44287</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44302</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44302</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44312</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44320</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44322</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44327</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44336</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44345</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44351</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44356</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44356</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44357</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44357</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>44363</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>44369</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         <v>44371</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32932,7 +32932,7 @@
         <v>44375</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>44377</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>44379</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>44382</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>44385</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>44385</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>44385</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>44386</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>44386</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44405</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>44413</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44417</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44419</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44421</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44432</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44435</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44435</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44435</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44438</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44438</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44447</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44448</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44448</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44454</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44454</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44455</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44456</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44457</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44462</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44467</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44474</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44475</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44475</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>44476</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>44477</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>44477</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>44480</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44482</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44482</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44484</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44489</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44489</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44497</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44497</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44497</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44498</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44498</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44502</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44502</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44502</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44511</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44522</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44522</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44529</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44531</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44544</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44566</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44574</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44581</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>44586</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>44588</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>44595</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>44595</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36585,7 +36585,7 @@
         <v>44602</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36642,7 +36642,7 @@
         <v>44615</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>44617</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36756,7 +36756,7 @@
         <v>44617</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36813,7 +36813,7 @@
         <v>44620</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36870,7 +36870,7 @@
         <v>44623</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44625</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44629</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37041,7 +37041,7 @@
         <v>44629</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44636</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37155,7 +37155,7 @@
         <v>44643</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37212,7 +37212,7 @@
         <v>44679</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         <v>44684</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37326,7 +37326,7 @@
         <v>44712</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37383,7 +37383,7 @@
         <v>44732</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37440,7 +37440,7 @@
         <v>44733</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         <v>44740</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37554,7 +37554,7 @@
         <v>44740</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37611,7 +37611,7 @@
         <v>44784</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44784</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37725,7 +37725,7 @@
         <v>44790</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37782,7 +37782,7 @@
         <v>44796</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44796</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37896,7 +37896,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44810</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44810</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44810</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44813</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44818</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44818</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38300,7 +38300,7 @@
         <v>44818</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38357,7 +38357,7 @@
         <v>44819</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38414,7 +38414,7 @@
         <v>44820</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44820</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44823</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44823</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44830</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44831</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38766,7 +38766,7 @@
         <v>44838</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38823,7 +38823,7 @@
         <v>44841</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38880,7 +38880,7 @@
         <v>44846</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38937,7 +38937,7 @@
         <v>44848</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38994,7 +38994,7 @@
         <v>44852</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
         <v>44855</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39113,7 +39113,7 @@
         <v>44858</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39170,7 +39170,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         <v>44861</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39284,7 +39284,7 @@
         <v>44862</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44864</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44904</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44909</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44909</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44914</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44924</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44924</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44924</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44924</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40087,7 +40087,7 @@
         <v>44931</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40144,7 +40144,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40201,7 +40201,7 @@
         <v>44949</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40258,7 +40258,7 @@
         <v>44949</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40315,7 +40315,7 @@
         <v>44963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44965</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40486,7 +40486,7 @@
         <v>44965</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44970</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44971</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40657,7 +40657,7 @@
         <v>44979</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>44979</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>44984</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40828,7 +40828,7 @@
         <v>44988</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40885,7 +40885,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>45001</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         <v>45007</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         <v>45007</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41227,7 +41227,7 @@
         <v>45019</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41284,7 +41284,7 @@
         <v>45027</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41341,7 +41341,7 @@
         <v>45028</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>45036</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41455,7 +41455,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41512,7 +41512,7 @@
         <v>45042</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>45044</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>45044</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>45050</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>45055</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>45061</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41854,7 +41854,7 @@
         <v>45063</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>45067</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45070</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45070</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>45070</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42159,7 +42159,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42216,7 +42216,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42273,7 +42273,7 @@
         <v>45071</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42330,7 +42330,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>45075</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42444,7 +42444,7 @@
         <v>45075</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>45075</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42615,7 +42615,7 @@
         <v>45076</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45082</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42734,7 +42734,7 @@
         <v>45083</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42791,7 +42791,7 @@
         <v>45086</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>45090</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42905,7 +42905,7 @@
         <v>45090</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42962,7 +42962,7 @@
         <v>45090</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45091</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43076,7 +43076,7 @@
         <v>45091</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>45091</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>45091</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43247,7 +43247,7 @@
         <v>45093</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43304,7 +43304,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43361,7 +43361,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>45097</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43475,7 +43475,7 @@
         <v>45097</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43532,7 +43532,7 @@
         <v>45099</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45099</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45099</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45103</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>45103</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>45104</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>45104</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43936,7 +43936,7 @@
         <v>45105</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43993,7 +43993,7 @@
         <v>45107</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44050,7 +44050,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44107,7 +44107,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44164,7 +44164,7 @@
         <v>45113</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44221,7 +44221,7 @@
         <v>45114</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44278,7 +44278,7 @@
         <v>45114</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>45114</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>45118</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>45118</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>45118</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>45119</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>45119</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44848,7 +44848,7 @@
         <v>45119</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44905,7 +44905,7 @@
         <v>45124</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44962,7 +44962,7 @@
         <v>45126</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>45126</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>45141</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>45153</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>45159</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>45161</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45304,7 +45304,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45361,7 +45361,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>45167</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45475,7 +45475,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>

--- a/Översikt KALMAR.xlsx
+++ b/Översikt KALMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44237</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44245</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44785</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44489</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44476</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44558</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43643</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44057</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44979</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44517</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44575</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44876</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43640</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43719</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43796</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44785</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44802</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44896</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44951</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>45105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43370</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43383</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43605</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43680</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43927</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43928</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44069</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44103</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>44152</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44260</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>44279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44466</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44726</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>44830</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44915</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44928</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44949</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>45007</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>45042</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45044</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45063</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45167</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43321</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43321</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43321</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43321</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43321</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43322</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43322</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43322</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43322</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43322</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43325</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43325</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43325</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43325</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43325</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43325</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43325</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43325</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43325</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43325</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43325</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43325</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43325</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43325</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43326</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43326</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43345</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43347</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43356</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43356</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43367</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43367</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43383</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43389</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43395</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43405</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>43410</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>43418</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>43418</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>43423</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43430</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43430</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43430</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43430</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43430</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43430</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43430</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43431</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43434</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43434</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>43438</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>43439</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>43439</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>43445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>43446</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43451</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43451</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43469</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43472</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43473</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43480</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>43482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43488</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43488</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43494</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>43494</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43498</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43501</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43508</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43508</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43514</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43517</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43522</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43522</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>43531</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>43535</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43538</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>43545</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>43545</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43558</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43558</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43559</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43566</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43567</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43570</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43578</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43581</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43581</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43584</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43585</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43587</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43591</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43591</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43591</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43592</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43600</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43605</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>43606</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>43606</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>43612</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>43612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>43613</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>43613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>43613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>43613</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>43613</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43625</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>43629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>43634</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>43634</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>43640</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>43640</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>43640</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>43640</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>43643</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>43648</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>43656</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>43662</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>43668</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>43668</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>43668</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>43674</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>43675</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>43678</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>43679</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>43680</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43680</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>43680</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>43680</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>43681</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>43682</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>43682</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>43683</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>43683</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>43683</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43684</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43689</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43689</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43691</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>43691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43691</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>43691</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>43691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43691</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43692</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43693</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43696</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43698</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43698</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43699</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43699</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43702</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43703</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43705</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43705</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43712</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43712</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43712</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>43713</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43714</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43717</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>43717</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>43717</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>43717</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>43717</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>43718</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>43718</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>43718</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43718</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43719</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>43719</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>43720</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>43721</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43721</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43724</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43726</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43727</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43727</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43727</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43728</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43728</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43732</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43733</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43746</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43749</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43755</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43756</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43756</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43761</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43763</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43763</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43763</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43766</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43769</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43774</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43776</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43777</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43777</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43777</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43777</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43780</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43780</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43782</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43784</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43784</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43784</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43784</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43791</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43796</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>43796</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>43803</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>43803</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>43803</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>43815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>43815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43829</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43832</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43832</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43832</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43832</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43840</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>43844</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>43846</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>43846</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>43859</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43865</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>43865</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>43867</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>43867</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>43867</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>43871</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>43871</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>43872</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>43873</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>43873</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>43875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>43875</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>43880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>43881</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>43886</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>43887</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>43887</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>43887</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>43894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>43900</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>43907</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>43907</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>43909</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>43915</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>43916</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>43916</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>43917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>43929</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>43936</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43941</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43950</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43956</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43977</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43984</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43999</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44007</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44020</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44032</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44041</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44041</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44047</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>44047</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>44053</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>44053</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>44053</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>44053</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44055</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44055</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>44055</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>44055</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>44060</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>44060</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>44061</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>44061</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44061</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44062</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44062</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>44074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44075</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44075</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44077</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44082</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44082</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44084</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44089</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44089</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44089</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44090</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44095</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44095</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44095</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44098</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44098</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44104</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44104</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44105</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44105</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44109</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44110</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44110</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44112</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44112</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44119</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44120</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44126</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44131</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44136</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44138</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44139</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44140</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44141</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44144</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44145</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44145</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44147</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44151</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44151</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44151</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44151</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44151</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44154</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44159</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44160</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44178</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>44182</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44182</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>44186</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>44187</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>44188</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>44192</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44193</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44193</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44201</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44209</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44210</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44210</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44214</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44214</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44214</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44215</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44217</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44218</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44220</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44229</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44230</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44230</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44230</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44230</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44230</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44236</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>44236</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>44236</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>44236</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44238</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>44241</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>44243</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>44244</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>44246</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>44250</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>44264</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31450,7 +31450,7 @@
         <v>44264</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31507,7 +31507,7 @@
         <v>44267</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44271</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44271</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44271</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44273</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44277</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44285</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44287</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44302</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44302</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44312</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44320</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44322</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44327</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44336</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44345</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44351</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44356</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44356</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44357</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44357</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>44363</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>44369</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         <v>44371</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32932,7 +32932,7 @@
         <v>44375</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>44377</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>44379</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>44382</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>44385</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>44385</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>44385</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>44386</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>44386</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44405</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>44413</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44417</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44419</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44421</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44432</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44435</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44435</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44435</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44438</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44438</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44447</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44448</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44448</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44454</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44454</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44455</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44456</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44457</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44462</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44467</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44474</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44475</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44475</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>44476</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>44477</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>44477</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>44480</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44482</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44482</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44484</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44489</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44489</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44497</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44497</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44497</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44498</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44498</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44502</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44502</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44502</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44511</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44522</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44522</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44529</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44531</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44544</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44566</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44574</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44581</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>44586</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>44588</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>44595</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>44595</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36585,7 +36585,7 @@
         <v>44602</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36642,7 +36642,7 @@
         <v>44615</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>44617</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36756,7 +36756,7 @@
         <v>44617</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36813,7 +36813,7 @@
         <v>44620</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36870,7 +36870,7 @@
         <v>44623</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44625</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44629</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37041,7 +37041,7 @@
         <v>44629</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44636</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37155,7 +37155,7 @@
         <v>44643</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37212,7 +37212,7 @@
         <v>44679</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         <v>44684</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37326,7 +37326,7 @@
         <v>44712</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37383,7 +37383,7 @@
         <v>44732</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37440,7 +37440,7 @@
         <v>44733</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         <v>44740</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37554,7 +37554,7 @@
         <v>44740</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37611,7 +37611,7 @@
         <v>44784</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44784</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37725,7 +37725,7 @@
         <v>44790</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37782,7 +37782,7 @@
         <v>44796</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44796</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37896,7 +37896,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44810</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44810</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44810</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44813</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44818</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44818</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38300,7 +38300,7 @@
         <v>44818</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38357,7 +38357,7 @@
         <v>44819</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38414,7 +38414,7 @@
         <v>44820</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44820</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44823</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44823</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44830</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44831</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38766,7 +38766,7 @@
         <v>44838</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38823,7 +38823,7 @@
         <v>44841</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38880,7 +38880,7 @@
         <v>44846</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38937,7 +38937,7 @@
         <v>44848</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38994,7 +38994,7 @@
         <v>44852</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
         <v>44855</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39113,7 +39113,7 @@
         <v>44858</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39170,7 +39170,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         <v>44861</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39284,7 +39284,7 @@
         <v>44862</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44864</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44904</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44909</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44909</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44914</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44924</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44924</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44924</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44924</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40087,7 +40087,7 @@
         <v>44931</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40144,7 +40144,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40201,7 +40201,7 @@
         <v>44949</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40258,7 +40258,7 @@
         <v>44949</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40315,7 +40315,7 @@
         <v>44963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44965</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40486,7 +40486,7 @@
         <v>44965</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44970</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44971</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40657,7 +40657,7 @@
         <v>44979</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>44979</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>44984</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40828,7 +40828,7 @@
         <v>44988</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40885,7 +40885,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>45001</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         <v>45007</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         <v>45007</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41227,7 +41227,7 @@
         <v>45019</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41284,7 +41284,7 @@
         <v>45027</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41341,7 +41341,7 @@
         <v>45028</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>45036</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41455,7 +41455,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41512,7 +41512,7 @@
         <v>45042</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>45044</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>45044</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>45050</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>45055</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>45061</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41854,7 +41854,7 @@
         <v>45063</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>45067</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45070</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45070</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>45070</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42159,7 +42159,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42216,7 +42216,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42273,7 +42273,7 @@
         <v>45071</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42330,7 +42330,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>45075</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42444,7 +42444,7 @@
         <v>45075</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>45075</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42615,7 +42615,7 @@
         <v>45076</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45082</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42734,7 +42734,7 @@
         <v>45083</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42791,7 +42791,7 @@
         <v>45086</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>45090</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42905,7 +42905,7 @@
         <v>45090</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42962,7 +42962,7 @@
         <v>45090</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45091</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43076,7 +43076,7 @@
         <v>45091</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>45091</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>45091</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43247,7 +43247,7 @@
         <v>45093</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43304,7 +43304,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43361,7 +43361,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>45097</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43475,7 +43475,7 @@
         <v>45097</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43532,7 +43532,7 @@
         <v>45099</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45099</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45099</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45103</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>45103</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>45104</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>45104</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43936,7 +43936,7 @@
         <v>45105</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43993,7 +43993,7 @@
         <v>45107</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44050,7 +44050,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44107,7 +44107,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44164,7 +44164,7 @@
         <v>45113</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44221,7 +44221,7 @@
         <v>45114</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44278,7 +44278,7 @@
         <v>45114</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>45114</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>45118</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>45118</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>45118</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>45119</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>45119</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44848,7 +44848,7 @@
         <v>45119</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44905,7 +44905,7 @@
         <v>45124</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44962,7 +44962,7 @@
         <v>45126</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>45126</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>45141</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>45153</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>45159</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>45161</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45304,7 +45304,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45361,7 +45361,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>45167</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45475,7 +45475,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>

--- a/Översikt KALMAR.xlsx
+++ b/Översikt KALMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44237</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44245</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44785</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44489</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44476</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44558</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43643</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44057</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44979</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44517</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44575</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44876</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43640</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43719</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43796</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44785</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44802</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44896</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44951</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>45105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43370</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43383</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43605</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43680</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43927</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43928</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44069</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44103</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>44152</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44260</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>44279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44466</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44726</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>44830</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44915</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44928</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44949</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>45007</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>45042</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45044</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45063</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45167</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43321</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43321</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43321</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43321</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43321</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43322</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43322</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43322</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43322</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43322</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43325</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43325</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43325</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43325</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43325</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43325</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43325</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43325</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43325</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43325</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43325</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43325</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43325</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43325</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43326</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43326</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43345</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43347</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43356</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43356</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43367</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43367</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43383</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43389</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43395</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43405</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>43410</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>43418</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>43418</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>43423</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43430</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43430</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43430</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43430</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43430</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43430</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43430</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43431</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43434</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43434</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>43438</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>43439</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>43439</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>43445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>43446</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43451</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43451</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43469</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43472</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43473</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43480</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>43482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43488</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43488</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43494</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>43494</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43498</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43501</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43508</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43508</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43514</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43517</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43522</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43522</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>43531</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>43535</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43538</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>43545</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>43545</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43558</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43558</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43559</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43566</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43567</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43570</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43578</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43581</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43581</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43584</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43585</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43587</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43591</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43591</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43591</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43592</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43600</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43605</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>43606</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>43606</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>43612</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>43612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>43613</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>43613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>43613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>43613</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>43613</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43625</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>43629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>43634</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>43634</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>43640</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>43640</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>43640</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>43640</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>43643</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>43648</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>43656</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>43662</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>43668</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>43668</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>43668</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>43674</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>43675</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>43678</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>43679</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>43680</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43680</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>43680</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>43680</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>43681</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>43682</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>43682</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>43683</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>43683</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>43683</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43684</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43689</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43689</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43691</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>43691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43691</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>43691</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>43691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43691</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43692</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43693</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43696</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43698</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43698</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43699</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43699</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43702</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43703</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43705</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43705</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43712</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43712</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43712</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>43713</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43714</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43717</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>43717</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>43717</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>43717</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>43717</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>43718</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>43718</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>43718</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43718</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43719</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>43719</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>43720</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>43721</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43721</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43724</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43726</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43727</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43727</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43727</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43728</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43728</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43732</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43733</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43746</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43749</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43755</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43756</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43756</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43761</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43763</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43763</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43763</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43766</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43769</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43774</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43776</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43777</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43777</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43777</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43777</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43780</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43780</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43782</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43784</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43784</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43784</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43784</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43791</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43796</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>43796</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>43803</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>43803</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>43803</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>43815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>43815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43829</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43832</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43832</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43832</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43832</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43840</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>43844</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>43846</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>43846</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>43859</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43865</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>43865</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>43867</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>43867</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>43867</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>43871</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>43871</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>43872</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>43873</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>43873</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>43875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>43875</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>43880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>43881</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>43886</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>43887</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>43887</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>43887</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>43894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>43900</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>43907</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>43907</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>43909</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>43915</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>43916</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>43916</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>43917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>43929</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>43936</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43941</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43950</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43956</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43977</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43984</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43999</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44007</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44020</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44032</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44041</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44041</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44047</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>44047</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>44053</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>44053</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>44053</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>44053</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44055</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44055</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>44055</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>44055</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>44060</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>44060</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>44061</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>44061</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44061</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44062</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44062</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>44074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44075</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44075</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44077</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44082</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44082</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44084</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44089</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44089</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44089</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44090</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44095</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44095</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44095</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44098</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44098</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44104</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44104</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44105</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44105</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44109</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44110</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44110</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44112</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44112</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44119</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44120</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44126</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44131</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44136</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44138</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44139</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44140</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44141</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44144</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44145</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44145</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44147</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44151</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44151</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44151</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44151</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44151</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44154</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44159</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44160</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44178</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>44182</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44182</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>44186</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>44187</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>44188</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>44192</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44193</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44193</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44201</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44209</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44210</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44210</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44214</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44214</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44214</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44215</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44217</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44218</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44220</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44229</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44230</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44230</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44230</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44230</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44230</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44236</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>44236</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>44236</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>44236</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44238</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>44241</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>44243</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>44244</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>44246</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>44250</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>44264</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31450,7 +31450,7 @@
         <v>44264</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31507,7 +31507,7 @@
         <v>44267</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44271</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44271</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44271</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44273</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44277</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44285</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44287</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44302</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44302</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44312</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44320</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44322</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44327</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44336</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44345</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44351</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44356</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44356</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44357</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44357</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>44363</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>44369</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         <v>44371</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32932,7 +32932,7 @@
         <v>44375</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>44377</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>44379</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>44382</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>44385</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>44385</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>44385</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>44386</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>44386</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44405</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>44413</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44417</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44419</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44421</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44432</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44435</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44435</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44435</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44438</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44438</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44447</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44448</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44448</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44454</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44454</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44455</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44456</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44457</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44462</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44467</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44474</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44475</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44475</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>44476</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>44477</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>44477</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>44480</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44482</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44482</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44484</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44489</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44489</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44497</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44497</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44497</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44498</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44498</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44502</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44502</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44502</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44511</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44522</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44522</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44529</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44531</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44544</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44566</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44574</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44581</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>44586</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>44588</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>44595</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>44595</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36585,7 +36585,7 @@
         <v>44602</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36642,7 +36642,7 @@
         <v>44615</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>44617</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36756,7 +36756,7 @@
         <v>44617</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36813,7 +36813,7 @@
         <v>44620</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36870,7 +36870,7 @@
         <v>44623</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44625</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44629</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37041,7 +37041,7 @@
         <v>44629</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44636</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37155,7 +37155,7 @@
         <v>44643</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37212,7 +37212,7 @@
         <v>44679</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         <v>44684</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37326,7 +37326,7 @@
         <v>44712</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37383,7 +37383,7 @@
         <v>44732</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37440,7 +37440,7 @@
         <v>44733</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         <v>44740</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37554,7 +37554,7 @@
         <v>44740</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37611,7 +37611,7 @@
         <v>44784</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44784</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37725,7 +37725,7 @@
         <v>44790</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37782,7 +37782,7 @@
         <v>44796</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44796</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37896,7 +37896,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44810</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44810</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44810</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44813</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44818</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44818</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38300,7 +38300,7 @@
         <v>44818</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38357,7 +38357,7 @@
         <v>44819</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38414,7 +38414,7 @@
         <v>44820</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44820</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44823</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44823</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44830</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44831</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38766,7 +38766,7 @@
         <v>44838</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38823,7 +38823,7 @@
         <v>44841</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38880,7 +38880,7 @@
         <v>44846</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38937,7 +38937,7 @@
         <v>44848</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38994,7 +38994,7 @@
         <v>44852</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
         <v>44855</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39113,7 +39113,7 @@
         <v>44858</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39170,7 +39170,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         <v>44861</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39284,7 +39284,7 @@
         <v>44862</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44864</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44904</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44909</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44909</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44914</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44924</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44924</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44924</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44924</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40087,7 +40087,7 @@
         <v>44931</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40144,7 +40144,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40201,7 +40201,7 @@
         <v>44949</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40258,7 +40258,7 @@
         <v>44949</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40315,7 +40315,7 @@
         <v>44963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44965</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40486,7 +40486,7 @@
         <v>44965</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44970</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44971</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40657,7 +40657,7 @@
         <v>44979</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>44979</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>44984</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40828,7 +40828,7 @@
         <v>44988</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40885,7 +40885,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>45001</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         <v>45007</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         <v>45007</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41227,7 +41227,7 @@
         <v>45019</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41284,7 +41284,7 @@
         <v>45027</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41341,7 +41341,7 @@
         <v>45028</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>45036</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41455,7 +41455,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41512,7 +41512,7 @@
         <v>45042</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>45044</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>45044</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>45050</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>45055</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>45061</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41854,7 +41854,7 @@
         <v>45063</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>45067</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45070</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45070</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>45070</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42159,7 +42159,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42216,7 +42216,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42273,7 +42273,7 @@
         <v>45071</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42330,7 +42330,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>45075</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42444,7 +42444,7 @@
         <v>45075</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>45075</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42615,7 +42615,7 @@
         <v>45076</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45082</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42734,7 +42734,7 @@
         <v>45083</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42791,7 +42791,7 @@
         <v>45086</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>45090</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42905,7 +42905,7 @@
         <v>45090</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42962,7 +42962,7 @@
         <v>45090</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45091</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43076,7 +43076,7 @@
         <v>45091</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>45091</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>45091</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43247,7 +43247,7 @@
         <v>45093</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43304,7 +43304,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43361,7 +43361,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>45097</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43475,7 +43475,7 @@
         <v>45097</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43532,7 +43532,7 @@
         <v>45099</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45099</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45099</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45103</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>45103</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>45104</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>45104</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43936,7 +43936,7 @@
         <v>45105</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43993,7 +43993,7 @@
         <v>45107</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44050,7 +44050,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44107,7 +44107,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44164,7 +44164,7 @@
         <v>45113</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44221,7 +44221,7 @@
         <v>45114</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44278,7 +44278,7 @@
         <v>45114</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>45114</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>45118</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>45118</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>45118</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>45119</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>45119</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44848,7 +44848,7 @@
         <v>45119</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44905,7 +44905,7 @@
         <v>45124</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44962,7 +44962,7 @@
         <v>45126</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>45126</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>45141</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>45153</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>45159</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>45161</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45304,7 +45304,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45361,7 +45361,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>45167</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45475,7 +45475,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>

--- a/Översikt KALMAR.xlsx
+++ b/Översikt KALMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44237</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44245</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44785</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44489</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44476</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44558</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43643</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44057</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44979</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44517</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44575</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44876</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43640</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43719</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43796</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44785</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44802</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44896</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44951</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>45105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43370</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43383</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43605</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43680</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43927</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43928</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44069</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44103</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>44152</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44260</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>44279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44466</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44726</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>44830</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44915</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44928</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44949</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>45007</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>45042</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45044</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45063</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45167</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43321</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43321</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43321</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43321</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43321</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43322</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43322</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43322</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43322</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43322</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43325</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43325</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43325</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43325</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43325</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43325</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43325</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43325</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43325</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43325</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43325</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43325</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43325</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43325</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43326</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43326</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43345</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43347</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43356</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43356</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43367</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43367</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43383</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43389</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43395</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43405</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>43410</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>43418</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>43418</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>43423</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43430</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43430</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43430</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43430</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43430</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43430</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43430</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43431</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43434</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43434</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>43438</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>43439</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>43439</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>43445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>43446</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43451</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43451</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43469</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43472</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43473</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43480</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>43482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43488</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43488</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43494</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>43494</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43498</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43501</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43508</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43508</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43514</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43517</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43522</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43522</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>43531</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>43535</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43538</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>43545</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>43545</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43558</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43558</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43559</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43566</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43567</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43570</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43578</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43581</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43581</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43584</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43585</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43587</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43591</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43591</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43591</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43592</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43600</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43605</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>43606</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>43606</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>43612</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>43612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>43613</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>43613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>43613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>43613</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>43613</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43625</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>43629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>43634</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>43634</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>43640</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>43640</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>43640</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>43640</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>43643</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>43648</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>43656</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>43662</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>43668</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>43668</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>43668</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>43674</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>43675</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>43678</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>43679</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>43680</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43680</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>43680</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>43680</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>43681</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>43682</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>43682</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>43683</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>43683</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>43683</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43684</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43689</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43689</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43691</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>43691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43691</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>43691</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>43691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43691</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43692</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43693</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43696</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43698</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43698</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43699</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43699</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43702</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43703</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43705</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43705</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43712</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43712</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43712</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>43713</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43714</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43717</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>43717</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>43717</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>43717</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>43717</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>43718</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>43718</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>43718</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43718</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43719</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>43719</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>43720</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>43721</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43721</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43724</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43726</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43727</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43727</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43727</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43728</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43728</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43732</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43733</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43746</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43749</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43755</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43756</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43756</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43761</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43763</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43763</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43763</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43766</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43769</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43774</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43776</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43777</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43777</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43777</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43777</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43780</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43780</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43782</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43784</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43784</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43784</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43784</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43791</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43796</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>43796</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>43803</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>43803</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>43803</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>43815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>43815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43829</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43832</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43832</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43832</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43832</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43840</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>43844</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>43846</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>43846</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>43859</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43865</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>43865</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>43867</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>43867</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>43867</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>43871</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>43871</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>43872</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>43873</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>43873</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>43875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>43875</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>43880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>43881</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>43886</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>43887</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>43887</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>43887</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>43894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>43900</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>43907</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>43907</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>43909</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>43915</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>43916</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>43916</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>43917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>43929</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>43936</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43941</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43950</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43956</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43977</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43984</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43999</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44007</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44020</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44032</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44041</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44041</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44047</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>44047</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>44053</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>44053</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>44053</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>44053</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44055</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44055</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>44055</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>44055</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>44060</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>44060</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>44061</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>44061</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44061</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44062</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44062</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>44074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44075</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44075</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44077</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44082</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44082</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44084</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44089</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44089</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44089</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44090</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44095</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44095</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44095</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44098</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44098</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44104</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44104</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44105</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44105</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44109</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44110</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44110</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44112</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44112</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44119</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44120</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44126</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44131</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44136</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44138</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44139</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44140</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44141</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44144</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44145</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44145</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44147</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44151</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44151</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44151</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44151</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44151</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44154</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44159</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44160</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44178</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>44182</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44182</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>44186</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>44187</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>44188</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>44192</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44193</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44193</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44201</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44209</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44210</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44210</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44214</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44214</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44214</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44215</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44217</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44218</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44220</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44229</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44230</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44230</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44230</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44230</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44230</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44236</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>44236</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>44236</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>44236</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44238</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>44241</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>44243</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>44244</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>44246</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>44250</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>44264</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31450,7 +31450,7 @@
         <v>44264</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31507,7 +31507,7 @@
         <v>44267</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44271</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44271</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44271</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44273</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44277</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44285</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44287</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44302</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44302</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44312</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44320</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44322</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44327</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44336</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44345</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44351</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44356</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44356</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44357</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44357</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>44363</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>44369</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         <v>44371</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32932,7 +32932,7 @@
         <v>44375</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>44377</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>44379</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>44382</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>44385</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>44385</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>44385</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>44386</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>44386</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44405</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>44413</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44417</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44419</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44421</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44432</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44435</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44435</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44435</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44438</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44438</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44447</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44448</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44448</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44454</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44454</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44455</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44456</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44457</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44462</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44467</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44474</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44475</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44475</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>44476</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>44477</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>44477</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>44480</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44482</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44482</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44484</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44489</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44489</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44497</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44497</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44497</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44498</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44498</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44502</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44502</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44502</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44511</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44522</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44522</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44529</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44531</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44544</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44566</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44574</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44581</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>44586</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>44588</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>44595</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>44595</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36585,7 +36585,7 @@
         <v>44602</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36642,7 +36642,7 @@
         <v>44615</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>44617</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36756,7 +36756,7 @@
         <v>44617</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36813,7 +36813,7 @@
         <v>44620</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36870,7 +36870,7 @@
         <v>44623</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44625</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44629</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37041,7 +37041,7 @@
         <v>44629</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44636</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37155,7 +37155,7 @@
         <v>44643</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37212,7 +37212,7 @@
         <v>44679</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         <v>44684</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37326,7 +37326,7 @@
         <v>44712</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37383,7 +37383,7 @@
         <v>44732</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37440,7 +37440,7 @@
         <v>44733</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         <v>44740</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37554,7 +37554,7 @@
         <v>44740</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37611,7 +37611,7 @@
         <v>44784</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44784</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37725,7 +37725,7 @@
         <v>44790</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37782,7 +37782,7 @@
         <v>44796</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44796</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37896,7 +37896,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44810</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44810</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44810</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44813</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44818</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44818</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38300,7 +38300,7 @@
         <v>44818</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38357,7 +38357,7 @@
         <v>44819</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38414,7 +38414,7 @@
         <v>44820</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44820</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44823</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44823</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44830</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44831</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38766,7 +38766,7 @@
         <v>44838</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38823,7 +38823,7 @@
         <v>44841</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38880,7 +38880,7 @@
         <v>44846</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38937,7 +38937,7 @@
         <v>44848</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38994,7 +38994,7 @@
         <v>44852</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
         <v>44855</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39113,7 +39113,7 @@
         <v>44858</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39170,7 +39170,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         <v>44861</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39284,7 +39284,7 @@
         <v>44862</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44864</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44904</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44909</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44909</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44914</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44924</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44924</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44924</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44924</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40087,7 +40087,7 @@
         <v>44931</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40144,7 +40144,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40201,7 +40201,7 @@
         <v>44949</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40258,7 +40258,7 @@
         <v>44949</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40315,7 +40315,7 @@
         <v>44963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44965</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40486,7 +40486,7 @@
         <v>44965</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44970</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44971</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40657,7 +40657,7 @@
         <v>44979</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>44979</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>44984</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40828,7 +40828,7 @@
         <v>44988</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40885,7 +40885,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>45001</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         <v>45007</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         <v>45007</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41227,7 +41227,7 @@
         <v>45019</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41284,7 +41284,7 @@
         <v>45027</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41341,7 +41341,7 @@
         <v>45028</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>45036</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41455,7 +41455,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41512,7 +41512,7 @@
         <v>45042</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>45044</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>45044</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>45050</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>45055</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>45061</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41854,7 +41854,7 @@
         <v>45063</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>45067</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45070</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45070</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>45070</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42159,7 +42159,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42216,7 +42216,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42273,7 +42273,7 @@
         <v>45071</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42330,7 +42330,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>45075</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42444,7 +42444,7 @@
         <v>45075</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>45075</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42615,7 +42615,7 @@
         <v>45076</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45082</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42734,7 +42734,7 @@
         <v>45083</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42791,7 +42791,7 @@
         <v>45086</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>45090</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42905,7 +42905,7 @@
         <v>45090</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42962,7 +42962,7 @@
         <v>45090</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45091</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43076,7 +43076,7 @@
         <v>45091</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>45091</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>45091</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43247,7 +43247,7 @@
         <v>45093</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43304,7 +43304,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43361,7 +43361,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>45097</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43475,7 +43475,7 @@
         <v>45097</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43532,7 +43532,7 @@
         <v>45099</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45099</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45099</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45103</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>45103</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>45104</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>45104</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43936,7 +43936,7 @@
         <v>45105</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43993,7 +43993,7 @@
         <v>45107</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44050,7 +44050,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44107,7 +44107,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44164,7 +44164,7 @@
         <v>45113</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44221,7 +44221,7 @@
         <v>45114</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44278,7 +44278,7 @@
         <v>45114</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>45114</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>45118</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>45118</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>45118</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>45119</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>45119</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44848,7 +44848,7 @@
         <v>45119</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44905,7 +44905,7 @@
         <v>45124</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44962,7 +44962,7 @@
         <v>45126</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>45126</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>45141</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>45153</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>45159</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>45161</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45304,7 +45304,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45361,7 +45361,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>45167</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45475,7 +45475,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>

--- a/Översikt KALMAR.xlsx
+++ b/Översikt KALMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44237</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44245</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44785</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44489</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44476</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44558</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43643</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44057</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44979</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44517</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44575</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44876</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43640</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43719</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43796</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44785</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44802</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44896</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44951</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>45105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43370</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43383</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43605</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43680</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43927</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43928</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44069</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44103</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>44152</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44260</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>44279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44466</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44726</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>44830</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44915</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44928</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44949</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>45007</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>45042</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45044</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45063</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45167</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43321</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43321</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43321</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43321</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43321</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43322</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43322</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43322</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43322</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43322</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43325</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43325</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43325</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43325</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43325</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43325</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43325</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43325</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43325</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43325</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43325</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43325</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43325</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43325</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43326</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43326</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43345</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43347</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43356</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43356</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43367</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43367</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43383</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43389</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43395</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43405</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>43410</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>43418</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>43418</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>43423</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43430</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43430</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43430</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43430</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43430</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43430</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43430</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43431</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43434</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43434</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>43438</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>43439</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>43439</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>43445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>43446</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43451</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43451</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43469</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43472</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43473</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43480</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>43482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43488</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43488</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43494</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>43494</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43498</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43501</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43508</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43508</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43514</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43517</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43522</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43522</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>43531</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>43535</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43538</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>43545</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>43545</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43558</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43558</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43559</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43566</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43567</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43570</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43578</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43581</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43581</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43584</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43585</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43587</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43591</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43591</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43591</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43592</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43600</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43605</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>43606</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>43606</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>43612</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>43612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>43613</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>43613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>43613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>43613</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>43613</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43625</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>43629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>43634</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>43634</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>43640</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>43640</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>43640</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>43640</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>43643</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>43648</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>43656</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>43662</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>43668</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>43668</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>43668</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>43674</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>43675</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>43678</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>43679</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>43680</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43680</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>43680</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>43680</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>43681</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>43682</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>43682</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>43683</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>43683</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>43683</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43684</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43689</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43689</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43691</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>43691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43691</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>43691</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>43691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43691</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43692</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43693</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43696</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43698</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43698</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43699</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43699</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43702</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43703</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43705</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43705</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43712</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43712</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43712</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>43713</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43714</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43717</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>43717</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>43717</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>43717</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>43717</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>43718</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>43718</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>43718</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43718</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43719</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>43719</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>43720</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>43721</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43721</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43724</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43726</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43727</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43727</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43727</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43728</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43728</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43732</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43733</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43746</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43749</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43755</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43756</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43756</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43761</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43763</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43763</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43763</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43766</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43769</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43774</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43776</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43777</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43777</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43777</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43777</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43780</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43780</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43782</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43784</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43784</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43784</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43784</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43791</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43796</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>43796</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>43803</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>43803</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>43803</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>43815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>43815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43829</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43832</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43832</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43832</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43832</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43840</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>43844</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>43846</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>43846</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>43859</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43865</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>43865</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>43867</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>43867</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>43867</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>43871</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>43871</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>43872</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>43873</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>43873</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>43875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>43875</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>43880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>43881</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>43886</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>43887</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>43887</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>43887</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>43894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>43900</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>43907</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>43907</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>43909</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>43915</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>43916</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>43916</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>43917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>43929</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>43936</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43941</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43950</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43956</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43977</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43984</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43999</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44007</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44020</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44032</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44041</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44041</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44047</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>44047</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>44053</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>44053</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>44053</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>44053</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44055</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44055</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>44055</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>44055</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>44060</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>44060</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>44061</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>44061</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44061</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44062</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44062</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>44074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44075</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44075</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44077</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44082</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44082</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44084</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44089</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44089</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44089</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44090</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44095</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44095</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44095</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44098</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44098</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44104</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44104</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44105</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44105</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44109</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44110</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44110</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44112</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44112</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44119</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44120</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44126</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44131</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44136</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44138</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44139</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44140</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44141</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44144</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44145</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44145</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44147</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44151</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44151</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44151</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44151</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44151</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44154</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44159</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44160</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44178</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>44182</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44182</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>44186</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>44187</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>44188</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>44192</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44193</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44193</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44201</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44209</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44210</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44210</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44214</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44214</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44214</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44215</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44217</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44218</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44220</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44229</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44230</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44230</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44230</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44230</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44230</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44236</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>44236</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>44236</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>44236</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44238</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>44241</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>44243</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>44244</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>44246</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>44250</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>44264</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31450,7 +31450,7 @@
         <v>44264</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31507,7 +31507,7 @@
         <v>44267</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44271</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44271</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44271</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44273</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44277</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44285</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44287</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44302</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44302</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44312</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44320</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44322</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44327</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44336</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44345</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44351</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44356</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44356</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44357</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44357</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>44363</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>44369</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         <v>44371</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32932,7 +32932,7 @@
         <v>44375</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>44377</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>44379</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>44382</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>44385</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>44385</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>44385</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>44386</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>44386</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44405</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>44413</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44417</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44419</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44421</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44432</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44435</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44435</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44435</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44438</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44438</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44447</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44448</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44448</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44454</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44454</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44455</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44456</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44457</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44462</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44467</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44474</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44475</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44475</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>44476</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>44477</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>44477</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>44480</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44482</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44482</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44484</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44489</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44489</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44497</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44497</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44497</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44498</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44498</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44502</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44502</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44502</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44511</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44522</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44522</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44529</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44531</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44544</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44566</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44574</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44581</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>44586</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>44588</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>44595</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>44595</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36585,7 +36585,7 @@
         <v>44602</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36642,7 +36642,7 @@
         <v>44615</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>44617</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36756,7 +36756,7 @@
         <v>44617</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36813,7 +36813,7 @@
         <v>44620</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36870,7 +36870,7 @@
         <v>44623</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44625</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44629</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37041,7 +37041,7 @@
         <v>44629</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44636</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37155,7 +37155,7 @@
         <v>44643</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37212,7 +37212,7 @@
         <v>44679</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         <v>44684</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37326,7 +37326,7 @@
         <v>44712</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37383,7 +37383,7 @@
         <v>44732</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37440,7 +37440,7 @@
         <v>44733</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         <v>44740</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37554,7 +37554,7 @@
         <v>44740</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37611,7 +37611,7 @@
         <v>44784</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44784</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37725,7 +37725,7 @@
         <v>44790</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37782,7 +37782,7 @@
         <v>44796</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44796</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37896,7 +37896,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44810</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44810</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44810</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44813</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44818</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44818</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38300,7 +38300,7 @@
         <v>44818</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38357,7 +38357,7 @@
         <v>44819</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38414,7 +38414,7 @@
         <v>44820</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44820</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44823</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44823</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44830</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44831</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38766,7 +38766,7 @@
         <v>44838</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38823,7 +38823,7 @@
         <v>44841</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38880,7 +38880,7 @@
         <v>44846</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38937,7 +38937,7 @@
         <v>44848</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38994,7 +38994,7 @@
         <v>44852</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
         <v>44855</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39113,7 +39113,7 @@
         <v>44858</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39170,7 +39170,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         <v>44861</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39284,7 +39284,7 @@
         <v>44862</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44864</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44904</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44909</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44909</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44914</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44924</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44924</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44924</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44924</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40087,7 +40087,7 @@
         <v>44931</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40144,7 +40144,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40201,7 +40201,7 @@
         <v>44949</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40258,7 +40258,7 @@
         <v>44949</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40315,7 +40315,7 @@
         <v>44963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44965</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40486,7 +40486,7 @@
         <v>44965</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44970</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44971</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40657,7 +40657,7 @@
         <v>44979</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>44979</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>44984</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40828,7 +40828,7 @@
         <v>44988</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40885,7 +40885,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>45001</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         <v>45007</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         <v>45007</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41227,7 +41227,7 @@
         <v>45019</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41284,7 +41284,7 @@
         <v>45027</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41341,7 +41341,7 @@
         <v>45028</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>45036</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41455,7 +41455,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41512,7 +41512,7 @@
         <v>45042</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>45044</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>45044</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>45050</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>45055</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>45061</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41854,7 +41854,7 @@
         <v>45063</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>45067</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45070</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45070</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>45070</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42159,7 +42159,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42216,7 +42216,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42273,7 +42273,7 @@
         <v>45071</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42330,7 +42330,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>45075</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42444,7 +42444,7 @@
         <v>45075</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>45075</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42615,7 +42615,7 @@
         <v>45076</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45082</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42734,7 +42734,7 @@
         <v>45083</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42791,7 +42791,7 @@
         <v>45086</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>45090</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42905,7 +42905,7 @@
         <v>45090</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42962,7 +42962,7 @@
         <v>45090</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45091</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43076,7 +43076,7 @@
         <v>45091</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>45091</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>45091</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43247,7 +43247,7 @@
         <v>45093</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43304,7 +43304,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43361,7 +43361,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>45097</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43475,7 +43475,7 @@
         <v>45097</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43532,7 +43532,7 @@
         <v>45099</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45099</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45099</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45103</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>45103</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>45104</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>45104</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43936,7 +43936,7 @@
         <v>45105</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43993,7 +43993,7 @@
         <v>45107</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44050,7 +44050,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44107,7 +44107,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44164,7 +44164,7 @@
         <v>45113</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44221,7 +44221,7 @@
         <v>45114</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44278,7 +44278,7 @@
         <v>45114</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>45114</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>45118</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>45118</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>45118</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>45119</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>45119</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44848,7 +44848,7 @@
         <v>45119</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44905,7 +44905,7 @@
         <v>45124</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44962,7 +44962,7 @@
         <v>45126</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>45126</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>45141</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>45153</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>45159</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>45161</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45304,7 +45304,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45361,7 +45361,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>45167</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45475,7 +45475,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>

--- a/Översikt KALMAR.xlsx
+++ b/Översikt KALMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44237</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -639,31 +639,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 6818-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 6818-2021.xlsx", "A 6818-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 6818-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 6818-2021.png", "A 6818-2021")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 6818-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 6818-2021.png", "A 6818-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 6818-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 6818-2021.docx", "A 6818-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 6818-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 6818-2021.docx", "A 6818-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 6818-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 6818-2021.docx", "A 6818-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 6818-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 6818-2021.docx", "A 6818-2021")</f>
         <v/>
       </c>
     </row>
@@ -677,7 +677,7 @@
         <v>44245</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -739,31 +739,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 8576-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 8576-2021.xlsx", "A 8576-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 8576-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 8576-2021.png", "A 8576-2021")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 8576-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 8576-2021.png", "A 8576-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 8576-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 8576-2021.docx", "A 8576-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 8576-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 8576-2021.docx", "A 8576-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 8576-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 8576-2021.docx", "A 8576-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 8576-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 8576-2021.docx", "A 8576-2021")</f>
         <v/>
       </c>
     </row>
@@ -777,7 +777,7 @@
         <v>44785</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,31 +838,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 33061-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 33061-2022.xlsx", "A 33061-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 33061-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 33061-2022.png", "A 33061-2022")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 33061-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 33061-2022.png", "A 33061-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 33061-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 33061-2022.docx", "A 33061-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 33061-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 33061-2022.docx", "A 33061-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 33061-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 33061-2022.docx", "A 33061-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 33061-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 33061-2022.docx", "A 33061-2022")</f>
         <v/>
       </c>
     </row>
@@ -876,7 +876,7 @@
         <v>44489</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -934,31 +934,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 58854-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 58854-2021.xlsx", "A 58854-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 58854-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 58854-2021.png", "A 58854-2021")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 58854-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 58854-2021.png", "A 58854-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 58854-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 58854-2021.docx", "A 58854-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 58854-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 58854-2021.docx", "A 58854-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 58854-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 58854-2021.docx", "A 58854-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 58854-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 58854-2021.docx", "A 58854-2021")</f>
         <v/>
       </c>
     </row>
@@ -972,7 +972,7 @@
         <v>44454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 49276-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 49276-2021.xlsx", "A 49276-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 49276-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 49276-2021.png", "A 49276-2021")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 49276-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 49276-2021.png", "A 49276-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 49276-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 49276-2021.docx", "A 49276-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 49276-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 49276-2021.docx", "A 49276-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 49276-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 49276-2021.docx", "A 49276-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 49276-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 49276-2021.docx", "A 49276-2021")</f>
         <v/>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
         <v>44476</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,31 +1129,31 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 55671-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 55671-2021.xlsx", "A 55671-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 55671-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 55671-2021.png", "A 55671-2021")</f>
         <v/>
       </c>
       <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 55671-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 55671-2021.png", "A 55671-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 55671-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 55671-2021.docx", "A 55671-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 55671-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 55671-2021.docx", "A 55671-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 55671-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 55671-2021.docx", "A 55671-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 55671-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 55671-2021.docx", "A 55671-2021")</f>
         <v/>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
         <v>44558</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1223,31 +1223,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 74213-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 74213-2021.xlsx", "A 74213-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 74213-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 74213-2021.png", "A 74213-2021")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 74213-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 74213-2021.png", "A 74213-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 74213-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 74213-2021.docx", "A 74213-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 74213-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 74213-2021.docx", "A 74213-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 74213-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 74213-2021.docx", "A 74213-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 74213-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 74213-2021.docx", "A 74213-2021")</f>
         <v/>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1317,27 +1317,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 5139-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 5139-2023.xlsx", "A 5139-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 5139-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 5139-2023.png", "A 5139-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 5139-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 5139-2023.docx", "A 5139-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 5139-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 5139-2023.docx", "A 5139-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 5139-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 5139-2023.docx", "A 5139-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 5139-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 5139-2023.docx", "A 5139-2023")</f>
         <v/>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
         <v>44439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1411,27 +1411,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 45095-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 45095-2021.xlsx", "A 45095-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 45095-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 45095-2021.png", "A 45095-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 45095-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 45095-2021.docx", "A 45095-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 45095-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 45095-2021.docx", "A 45095-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 45095-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 45095-2021.docx", "A 45095-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 45095-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 45095-2021.docx", "A 45095-2021")</f>
         <v/>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1499,31 +1499,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 22939-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 22939-2019.xlsx", "A 22939-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 22939-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 22939-2019.png", "A 22939-2019")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 22939-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 22939-2019.png", "A 22939-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 22939-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 22939-2019.docx", "A 22939-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 22939-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 22939-2019.docx", "A 22939-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 22939-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 22939-2019.docx", "A 22939-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 22939-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 22939-2019.docx", "A 22939-2019")</f>
         <v/>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
         <v>43643</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1591,27 +1591,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 32058-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 32058-2019.xlsx", "A 32058-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 32058-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 32058-2019.png", "A 32058-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 32058-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 32058-2019.docx", "A 32058-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 32058-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 32058-2019.docx", "A 32058-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 32058-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 32058-2019.docx", "A 32058-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 32058-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 32058-2019.docx", "A 32058-2019")</f>
         <v/>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,27 +1679,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 39570-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 39570-2019.xlsx", "A 39570-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 39570-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 39570-2019.png", "A 39570-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 39570-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 39570-2019.docx", "A 39570-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 39570-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 39570-2019.docx", "A 39570-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 39570-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 39570-2019.docx", "A 39570-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 39570-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 39570-2019.docx", "A 39570-2019")</f>
         <v/>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
         <v>44057</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1767,31 +1767,31 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 38049-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 38049-2020.xlsx", "A 38049-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 38049-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 38049-2020.png", "A 38049-2020")</f>
         <v/>
       </c>
       <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 38049-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 38049-2020.png", "A 38049-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 38049-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 38049-2020.docx", "A 38049-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 38049-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 38049-2020.docx", "A 38049-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 38049-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 38049-2020.docx", "A 38049-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 38049-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 38049-2020.docx", "A 38049-2020")</f>
         <v/>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1859,31 +1859,31 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 6933-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 6933-2023.xlsx", "A 6933-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 6933-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 6933-2023.png", "A 6933-2023")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 6933-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 6933-2023.png", "A 6933-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 6933-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 6933-2023.docx", "A 6933-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 6933-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 6933-2023.docx", "A 6933-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 6933-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 6933-2023.docx", "A 6933-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 6933-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 6933-2023.docx", "A 6933-2023")</f>
         <v/>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
         <v>44979</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,27 +1951,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 8929-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 8929-2023.xlsx", "A 8929-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 8929-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 8929-2023.png", "A 8929-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 8929-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 8929-2023.docx", "A 8929-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 8929-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 8929-2023.docx", "A 8929-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 8929-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 8929-2023.docx", "A 8929-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 8929-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 8929-2023.docx", "A 8929-2023")</f>
         <v/>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2038,31 +2038,31 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 26717-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 26717-2019.xlsx", "A 26717-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 26717-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 26717-2019.png", "A 26717-2019")</f>
         <v/>
       </c>
       <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 26717-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 26717-2019.png", "A 26717-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 26717-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 26717-2019.docx", "A 26717-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 26717-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 26717-2019.docx", "A 26717-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 26717-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 26717-2019.docx", "A 26717-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 26717-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 26717-2019.docx", "A 26717-2019")</f>
         <v/>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2129,31 +2129,31 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 58919-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 58919-2021.xlsx", "A 58919-2021")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 58919-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 58919-2021.png", "A 58919-2021")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 58919-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 58919-2021.png", "A 58919-2021")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 58919-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 58919-2021.docx", "A 58919-2021")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 58919-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 58919-2021.docx", "A 58919-2021")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 58919-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 58919-2021.docx", "A 58919-2021")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 58919-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 58919-2021.docx", "A 58919-2021")</f>
         <v/>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
         <v>44517</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2220,27 +2220,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 65973-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 65973-2021.xlsx", "A 65973-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 65973-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 65973-2021.png", "A 65973-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 65973-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 65973-2021.docx", "A 65973-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 65973-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 65973-2021.docx", "A 65973-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 65973-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 65973-2021.docx", "A 65973-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 65973-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 65973-2021.docx", "A 65973-2021")</f>
         <v/>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
         <v>44575</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,31 +2307,31 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 1933-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 1933-2022.xlsx", "A 1933-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 1933-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 1933-2022.png", "A 1933-2022")</f>
         <v/>
       </c>
       <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 1933-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 1933-2022.png", "A 1933-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 1933-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 1933-2022.docx", "A 1933-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 1933-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 1933-2022.docx", "A 1933-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 1933-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 1933-2022.docx", "A 1933-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 1933-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 1933-2022.docx", "A 1933-2022")</f>
         <v/>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2403,27 +2403,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 33057-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 33057-2022.xlsx", "A 33057-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 33057-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 33057-2022.png", "A 33057-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 33057-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 33057-2022.docx", "A 33057-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 33057-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 33057-2022.docx", "A 33057-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 33057-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 33057-2022.docx", "A 33057-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 33057-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 33057-2022.docx", "A 33057-2022")</f>
         <v/>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
         <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2490,31 +2490,31 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 41542-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 41542-2022.xlsx", "A 41542-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 41542-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 41542-2022.png", "A 41542-2022")</f>
         <v/>
       </c>
       <c r="U22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 41542-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 41542-2022.png", "A 41542-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 41542-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 41542-2022.docx", "A 41542-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 41542-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 41542-2022.docx", "A 41542-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 41542-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 41542-2022.docx", "A 41542-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 41542-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 41542-2022.docx", "A 41542-2022")</f>
         <v/>
       </c>
     </row>
@@ -2528,7 +2528,7 @@
         <v>44853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,31 +2581,31 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 47451-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 47451-2022.xlsx", "A 47451-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 47451-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 47451-2022.png", "A 47451-2022")</f>
         <v/>
       </c>
       <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 47451-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 47451-2022.png", "A 47451-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 47451-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 47451-2022.docx", "A 47451-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 47451-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 47451-2022.docx", "A 47451-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 47451-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 47451-2022.docx", "A 47451-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 47451-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 47451-2022.docx", "A 47451-2022")</f>
         <v/>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
         <v>44876</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2672,31 +2672,31 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 53138-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 53138-2022.xlsx", "A 53138-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 53138-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 53138-2022.png", "A 53138-2022")</f>
         <v/>
       </c>
       <c r="U24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 53138-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 53138-2022.png", "A 53138-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 53138-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 53138-2022.docx", "A 53138-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 53138-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 53138-2022.docx", "A 53138-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 53138-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 53138-2022.docx", "A 53138-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 53138-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 53138-2022.docx", "A 53138-2022")</f>
         <v/>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2763,27 +2763,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 31781-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 31781-2023.xlsx", "A 31781-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 31781-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 31781-2023.png", "A 31781-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 31781-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 31781-2023.docx", "A 31781-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 31781-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 31781-2023.docx", "A 31781-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 31781-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 31781-2023.docx", "A 31781-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 31781-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 31781-2023.docx", "A 31781-2023")</f>
         <v/>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
         <v>43448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2849,27 +2849,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 70951-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 70951-2018.xlsx", "A 70951-2018")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 70951-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 70951-2018.png", "A 70951-2018")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 70951-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 70951-2018.docx", "A 70951-2018")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 70951-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 70951-2018.docx", "A 70951-2018")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 70951-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 70951-2018.docx", "A 70951-2018")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 70951-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 70951-2018.docx", "A 70951-2018")</f>
         <v/>
       </c>
     </row>
@@ -2883,7 +2883,7 @@
         <v>43640</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2935,31 +2935,31 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 31267-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 31267-2019.xlsx", "A 31267-2019")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 31267-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 31267-2019.png", "A 31267-2019")</f>
         <v/>
       </c>
       <c r="U27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 31267-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 31267-2019.png", "A 31267-2019")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 31267-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 31267-2019.docx", "A 31267-2019")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 31267-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 31267-2019.docx", "A 31267-2019")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 31267-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 31267-2019.docx", "A 31267-2019")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 31267-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 31267-2019.docx", "A 31267-2019")</f>
         <v/>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
         <v>43719</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3025,27 +3025,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 46727-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 46727-2019.xlsx", "A 46727-2019")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 46727-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 46727-2019.png", "A 46727-2019")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 46727-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 46727-2019.docx", "A 46727-2019")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 46727-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 46727-2019.docx", "A 46727-2019")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 46727-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 46727-2019.docx", "A 46727-2019")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 46727-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 46727-2019.docx", "A 46727-2019")</f>
         <v/>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
         <v>43796</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3116,27 +3116,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 63949-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 63949-2019.xlsx", "A 63949-2019")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 63949-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 63949-2019.png", "A 63949-2019")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 63949-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 63949-2019.docx", "A 63949-2019")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 63949-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 63949-2019.docx", "A 63949-2019")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 63949-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 63949-2019.docx", "A 63949-2019")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 63949-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 63949-2019.docx", "A 63949-2019")</f>
         <v/>
       </c>
     </row>
@@ -3150,7 +3150,7 @@
         <v>44785</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3207,31 +3207,31 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 33043-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 33043-2022.xlsx", "A 33043-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 33043-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 33043-2022.png", "A 33043-2022")</f>
         <v/>
       </c>
       <c r="U30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 33043-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 33043-2022.png", "A 33043-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 33043-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 33043-2022.docx", "A 33043-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 33043-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 33043-2022.docx", "A 33043-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 33043-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 33043-2022.docx", "A 33043-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 33043-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 33043-2022.docx", "A 33043-2022")</f>
         <v/>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
         <v>44802</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3297,27 +3297,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 35871-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 35871-2022.xlsx", "A 35871-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 35871-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 35871-2022.png", "A 35871-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 35871-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 35871-2022.docx", "A 35871-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 35871-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 35871-2022.docx", "A 35871-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 35871-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 35871-2022.docx", "A 35871-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 35871-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 35871-2022.docx", "A 35871-2022")</f>
         <v/>
       </c>
     </row>
@@ -3331,7 +3331,7 @@
         <v>44896</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3383,27 +3383,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 57330-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 57330-2022.xlsx", "A 57330-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 57330-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 57330-2022.png", "A 57330-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 57330-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 57330-2022.docx", "A 57330-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 57330-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 57330-2022.docx", "A 57330-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 57330-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 57330-2022.docx", "A 57330-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 57330-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 57330-2022.docx", "A 57330-2022")</f>
         <v/>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
         <v>44951</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3469,27 +3469,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 4538-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 4538-2023.xlsx", "A 4538-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 4538-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 4538-2023.png", "A 4538-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 4538-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 4538-2023.docx", "A 4538-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 4538-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 4538-2023.docx", "A 4538-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 4538-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 4538-2023.docx", "A 4538-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 4538-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 4538-2023.docx", "A 4538-2023")</f>
         <v/>
       </c>
     </row>
@@ -3503,7 +3503,7 @@
         <v>45105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3555,27 +3555,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 31692-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 31692-2023.xlsx", "A 31692-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 31692-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 31692-2023.png", "A 31692-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 31692-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 31692-2023.docx", "A 31692-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 31692-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 31692-2023.docx", "A 31692-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 31692-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 31692-2023.docx", "A 31692-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 31692-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 31692-2023.docx", "A 31692-2023")</f>
         <v/>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
         <v>43370</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,27 +3640,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 48007-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 48007-2018.xlsx", "A 48007-2018")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 48007-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 48007-2018.png", "A 48007-2018")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 48007-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 48007-2018.docx", "A 48007-2018")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 48007-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 48007-2018.docx", "A 48007-2018")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 48007-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 48007-2018.docx", "A 48007-2018")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 48007-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 48007-2018.docx", "A 48007-2018")</f>
         <v/>
       </c>
     </row>
@@ -3674,7 +3674,7 @@
         <v>43383</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3725,31 +3725,31 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 52781-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 52781-2018.xlsx", "A 52781-2018")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 52781-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 52781-2018.png", "A 52781-2018")</f>
         <v/>
       </c>
       <c r="U36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 52781-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 52781-2018.png", "A 52781-2018")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 52781-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 52781-2018.docx", "A 52781-2018")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 52781-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 52781-2018.docx", "A 52781-2018")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 52781-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 52781-2018.docx", "A 52781-2018")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 52781-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 52781-2018.docx", "A 52781-2018")</f>
         <v/>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3814,27 +3814,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 56760-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 56760-2018.xlsx", "A 56760-2018")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 56760-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 56760-2018.png", "A 56760-2018")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 56760-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 56760-2018.docx", "A 56760-2018")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 56760-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 56760-2018.docx", "A 56760-2018")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 56760-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 56760-2018.docx", "A 56760-2018")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 56760-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 56760-2018.docx", "A 56760-2018")</f>
         <v/>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3899,27 +3899,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 4513-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 4513-2019.xlsx", "A 4513-2019")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 4513-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 4513-2019.png", "A 4513-2019")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 4513-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 4513-2019.docx", "A 4513-2019")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 4513-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 4513-2019.docx", "A 4513-2019")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 4513-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 4513-2019.docx", "A 4513-2019")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 4513-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 4513-2019.docx", "A 4513-2019")</f>
         <v/>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3984,27 +3984,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 13783-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 13783-2019.xlsx", "A 13783-2019")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 13783-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 13783-2019.png", "A 13783-2019")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 13783-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 13783-2019.docx", "A 13783-2019")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 13783-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 13783-2019.docx", "A 13783-2019")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 13783-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 13783-2019.docx", "A 13783-2019")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 13783-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 13783-2019.docx", "A 13783-2019")</f>
         <v/>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
         <v>43605</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4069,27 +4069,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 25168-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 25168-2019.xlsx", "A 25168-2019")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 25168-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 25168-2019.png", "A 25168-2019")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 25168-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 25168-2019.docx", "A 25168-2019")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 25168-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 25168-2019.docx", "A 25168-2019")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 25168-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 25168-2019.docx", "A 25168-2019")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 25168-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 25168-2019.docx", "A 25168-2019")</f>
         <v/>
       </c>
     </row>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4154,27 +4154,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 26976-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 26976-2019.xlsx", "A 26976-2019")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 26976-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 26976-2019.png", "A 26976-2019")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 26976-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 26976-2019.docx", "A 26976-2019")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 26976-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 26976-2019.docx", "A 26976-2019")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 26976-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 26976-2019.docx", "A 26976-2019")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 26976-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 26976-2019.docx", "A 26976-2019")</f>
         <v/>
       </c>
     </row>
@@ -4188,7 +4188,7 @@
         <v>43680</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4239,27 +4239,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 37605-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 37605-2019.xlsx", "A 37605-2019")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 37605-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 37605-2019.png", "A 37605-2019")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 37605-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 37605-2019.docx", "A 37605-2019")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 37605-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 37605-2019.docx", "A 37605-2019")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 37605-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 37605-2019.docx", "A 37605-2019")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 37605-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 37605-2019.docx", "A 37605-2019")</f>
         <v/>
       </c>
     </row>
@@ -4273,7 +4273,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4324,31 +4324,31 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 49015-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 49015-2019.xlsx", "A 49015-2019")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 49015-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 49015-2019.png", "A 49015-2019")</f>
         <v/>
       </c>
       <c r="U43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 49015-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 49015-2019.png", "A 49015-2019")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 49015-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 49015-2019.docx", "A 49015-2019")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 49015-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 49015-2019.docx", "A 49015-2019")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 49015-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 49015-2019.docx", "A 49015-2019")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 49015-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 49015-2019.docx", "A 49015-2019")</f>
         <v/>
       </c>
     </row>
@@ -4362,7 +4362,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4413,27 +4413,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 50067-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 50067-2019.xlsx", "A 50067-2019")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 50067-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 50067-2019.png", "A 50067-2019")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 50067-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 50067-2019.docx", "A 50067-2019")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 50067-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 50067-2019.docx", "A 50067-2019")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 50067-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 50067-2019.docx", "A 50067-2019")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 50067-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 50067-2019.docx", "A 50067-2019")</f>
         <v/>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
         <v>43854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4498,27 +4498,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 3928-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 3928-2020.xlsx", "A 3928-2020")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 3928-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 3928-2020.png", "A 3928-2020")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 3928-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 3928-2020.docx", "A 3928-2020")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 3928-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 3928-2020.docx", "A 3928-2020")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 3928-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 3928-2020.docx", "A 3928-2020")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 3928-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 3928-2020.docx", "A 3928-2020")</f>
         <v/>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
         <v>43927</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4583,27 +4583,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 18186-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 18186-2020.xlsx", "A 18186-2020")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 18186-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 18186-2020.png", "A 18186-2020")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 18186-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 18186-2020.docx", "A 18186-2020")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 18186-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 18186-2020.docx", "A 18186-2020")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 18186-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 18186-2020.docx", "A 18186-2020")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 18186-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 18186-2020.docx", "A 18186-2020")</f>
         <v/>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
         <v>43928</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4668,27 +4668,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 18351-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 18351-2020.xlsx", "A 18351-2020")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 18351-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 18351-2020.png", "A 18351-2020")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 18351-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 18351-2020.docx", "A 18351-2020")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 18351-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 18351-2020.docx", "A 18351-2020")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 18351-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 18351-2020.docx", "A 18351-2020")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 18351-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 18351-2020.docx", "A 18351-2020")</f>
         <v/>
       </c>
     </row>
@@ -4702,7 +4702,7 @@
         <v>44069</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4753,27 +4753,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 40734-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 40734-2020.xlsx", "A 40734-2020")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 40734-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 40734-2020.png", "A 40734-2020")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 40734-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 40734-2020.docx", "A 40734-2020")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 40734-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 40734-2020.docx", "A 40734-2020")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 40734-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 40734-2020.docx", "A 40734-2020")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 40734-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 40734-2020.docx", "A 40734-2020")</f>
         <v/>
       </c>
     </row>
@@ -4787,7 +4787,7 @@
         <v>44103</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4838,27 +4838,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 48581-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 48581-2020.xlsx", "A 48581-2020")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 48581-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 48581-2020.png", "A 48581-2020")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 48581-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 48581-2020.docx", "A 48581-2020")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 48581-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 48581-2020.docx", "A 48581-2020")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 48581-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 48581-2020.docx", "A 48581-2020")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 48581-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 48581-2020.docx", "A 48581-2020")</f>
         <v/>
       </c>
     </row>
@@ -4872,7 +4872,7 @@
         <v>44152</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4923,27 +4923,27 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 60199-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 60199-2020.xlsx", "A 60199-2020")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 60199-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 60199-2020.png", "A 60199-2020")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 60199-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 60199-2020.docx", "A 60199-2020")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 60199-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 60199-2020.docx", "A 60199-2020")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 60199-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 60199-2020.docx", "A 60199-2020")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 60199-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 60199-2020.docx", "A 60199-2020")</f>
         <v/>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
         <v>44260</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5008,27 +5008,27 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 10962-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 10962-2021.xlsx", "A 10962-2021")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 10962-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 10962-2021.png", "A 10962-2021")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 10962-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 10962-2021.docx", "A 10962-2021")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 10962-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 10962-2021.docx", "A 10962-2021")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 10962-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 10962-2021.docx", "A 10962-2021")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 10962-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 10962-2021.docx", "A 10962-2021")</f>
         <v/>
       </c>
     </row>
@@ -5042,7 +5042,7 @@
         <v>44279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5093,27 +5093,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 14343-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 14343-2021.xlsx", "A 14343-2021")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 14343-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 14343-2021.png", "A 14343-2021")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 14343-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 14343-2021.docx", "A 14343-2021")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 14343-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 14343-2021.docx", "A 14343-2021")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 14343-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 14343-2021.docx", "A 14343-2021")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 14343-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 14343-2021.docx", "A 14343-2021")</f>
         <v/>
       </c>
     </row>
@@ -5127,7 +5127,7 @@
         <v>44466</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5178,31 +5178,31 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 52670-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 52670-2021.xlsx", "A 52670-2021")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 52670-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 52670-2021.png", "A 52670-2021")</f>
         <v/>
       </c>
       <c r="U53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 52670-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 52670-2021.png", "A 52670-2021")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 52670-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 52670-2021.docx", "A 52670-2021")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 52670-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 52670-2021.docx", "A 52670-2021")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 52670-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 52670-2021.docx", "A 52670-2021")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 52670-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 52670-2021.docx", "A 52670-2021")</f>
         <v/>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
         <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5267,31 +5267,31 @@
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 57058-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 57058-2021.xlsx", "A 57058-2021")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 57058-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 57058-2021.png", "A 57058-2021")</f>
         <v/>
       </c>
       <c r="U54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 57058-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 57058-2021.png", "A 57058-2021")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 57058-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 57058-2021.docx", "A 57058-2021")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 57058-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 57058-2021.docx", "A 57058-2021")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 57058-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 57058-2021.docx", "A 57058-2021")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 57058-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 57058-2021.docx", "A 57058-2021")</f>
         <v/>
       </c>
     </row>
@@ -5305,7 +5305,7 @@
         <v>44487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5356,31 +5356,31 @@
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 58044-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 58044-2021.xlsx", "A 58044-2021")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 58044-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 58044-2021.png", "A 58044-2021")</f>
         <v/>
       </c>
       <c r="U55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 58044-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 58044-2021.png", "A 58044-2021")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 58044-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 58044-2021.docx", "A 58044-2021")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 58044-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 58044-2021.docx", "A 58044-2021")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 58044-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 58044-2021.docx", "A 58044-2021")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 58044-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 58044-2021.docx", "A 58044-2021")</f>
         <v/>
       </c>
     </row>
@@ -5394,7 +5394,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5445,27 +5445,27 @@
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 58927-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 58927-2021.xlsx", "A 58927-2021")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 58927-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 58927-2021.png", "A 58927-2021")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 58927-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 58927-2021.docx", "A 58927-2021")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 58927-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 58927-2021.docx", "A 58927-2021")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 58927-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 58927-2021.docx", "A 58927-2021")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 58927-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 58927-2021.docx", "A 58927-2021")</f>
         <v/>
       </c>
     </row>
@@ -5479,7 +5479,7 @@
         <v>44726</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5530,27 +5530,27 @@
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 24437-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 24437-2022.xlsx", "A 24437-2022")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 24437-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 24437-2022.png", "A 24437-2022")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 24437-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 24437-2022.docx", "A 24437-2022")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 24437-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 24437-2022.docx", "A 24437-2022")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 24437-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 24437-2022.docx", "A 24437-2022")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 24437-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 24437-2022.docx", "A 24437-2022")</f>
         <v/>
       </c>
     </row>
@@ -5564,7 +5564,7 @@
         <v>44830</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5615,27 +5615,27 @@
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 42052-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 42052-2022.xlsx", "A 42052-2022")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 42052-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 42052-2022.png", "A 42052-2022")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 42052-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 42052-2022.docx", "A 42052-2022")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 42052-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 42052-2022.docx", "A 42052-2022")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 42052-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 42052-2022.docx", "A 42052-2022")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 42052-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 42052-2022.docx", "A 42052-2022")</f>
         <v/>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
         <v>44915</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5700,27 +5700,27 @@
         </is>
       </c>
       <c r="S59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 61236-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 61236-2022.xlsx", "A 61236-2022")</f>
         <v/>
       </c>
       <c r="T59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 61236-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 61236-2022.png", "A 61236-2022")</f>
         <v/>
       </c>
       <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 61236-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 61236-2022.docx", "A 61236-2022")</f>
         <v/>
       </c>
       <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 61236-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 61236-2022.docx", "A 61236-2022")</f>
         <v/>
       </c>
       <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 61236-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 61236-2022.docx", "A 61236-2022")</f>
         <v/>
       </c>
       <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 61236-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 61236-2022.docx", "A 61236-2022")</f>
         <v/>
       </c>
     </row>
@@ -5734,7 +5734,7 @@
         <v>44928</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5790,27 +5790,27 @@
         </is>
       </c>
       <c r="S60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 183-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 183-2023.xlsx", "A 183-2023")</f>
         <v/>
       </c>
       <c r="T60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 183-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 183-2023.png", "A 183-2023")</f>
         <v/>
       </c>
       <c r="V60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 183-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 183-2023.docx", "A 183-2023")</f>
         <v/>
       </c>
       <c r="W60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 183-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 183-2023.docx", "A 183-2023")</f>
         <v/>
       </c>
       <c r="X60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 183-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 183-2023.docx", "A 183-2023")</f>
         <v/>
       </c>
       <c r="Y60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 183-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 183-2023.docx", "A 183-2023")</f>
         <v/>
       </c>
     </row>
@@ -5824,7 +5824,7 @@
         <v>44949</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5875,27 +5875,27 @@
         </is>
       </c>
       <c r="S61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 3404-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 3404-2023.xlsx", "A 3404-2023")</f>
         <v/>
       </c>
       <c r="T61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 3404-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 3404-2023.png", "A 3404-2023")</f>
         <v/>
       </c>
       <c r="V61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 3404-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 3404-2023.docx", "A 3404-2023")</f>
         <v/>
       </c>
       <c r="W61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 3404-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 3404-2023.docx", "A 3404-2023")</f>
         <v/>
       </c>
       <c r="X61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 3404-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 3404-2023.docx", "A 3404-2023")</f>
         <v/>
       </c>
       <c r="Y61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 3404-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 3404-2023.docx", "A 3404-2023")</f>
         <v/>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
         <v>45007</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5960,27 +5960,27 @@
         </is>
       </c>
       <c r="S62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 13721-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 13721-2023.xlsx", "A 13721-2023")</f>
         <v/>
       </c>
       <c r="T62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 13721-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 13721-2023.png", "A 13721-2023")</f>
         <v/>
       </c>
       <c r="V62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 13721-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 13721-2023.docx", "A 13721-2023")</f>
         <v/>
       </c>
       <c r="W62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 13721-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 13721-2023.docx", "A 13721-2023")</f>
         <v/>
       </c>
       <c r="X62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 13721-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 13721-2023.docx", "A 13721-2023")</f>
         <v/>
       </c>
       <c r="Y62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 13721-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 13721-2023.docx", "A 13721-2023")</f>
         <v/>
       </c>
     </row>
@@ -5994,7 +5994,7 @@
         <v>45042</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6045,27 +6045,27 @@
         </is>
       </c>
       <c r="S63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 18475-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 18475-2023.xlsx", "A 18475-2023")</f>
         <v/>
       </c>
       <c r="T63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 18475-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 18475-2023.png", "A 18475-2023")</f>
         <v/>
       </c>
       <c r="V63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 18475-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 18475-2023.docx", "A 18475-2023")</f>
         <v/>
       </c>
       <c r="W63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 18475-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 18475-2023.docx", "A 18475-2023")</f>
         <v/>
       </c>
       <c r="X63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 18475-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 18475-2023.docx", "A 18475-2023")</f>
         <v/>
       </c>
       <c r="Y63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 18475-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 18475-2023.docx", "A 18475-2023")</f>
         <v/>
       </c>
     </row>
@@ -6079,7 +6079,7 @@
         <v>45044</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6130,27 +6130,27 @@
         </is>
       </c>
       <c r="S64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 18874-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 18874-2023.xlsx", "A 18874-2023")</f>
         <v/>
       </c>
       <c r="T64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 18874-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 18874-2023.png", "A 18874-2023")</f>
         <v/>
       </c>
       <c r="V64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 18874-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 18874-2023.docx", "A 18874-2023")</f>
         <v/>
       </c>
       <c r="W64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 18874-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 18874-2023.docx", "A 18874-2023")</f>
         <v/>
       </c>
       <c r="X64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 18874-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 18874-2023.docx", "A 18874-2023")</f>
         <v/>
       </c>
       <c r="Y64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 18874-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 18874-2023.docx", "A 18874-2023")</f>
         <v/>
       </c>
     </row>
@@ -6164,7 +6164,7 @@
         <v>45063</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6220,27 +6220,27 @@
         </is>
       </c>
       <c r="S65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 21518-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 21518-2023.xlsx", "A 21518-2023")</f>
         <v/>
       </c>
       <c r="T65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 21518-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 21518-2023.png", "A 21518-2023")</f>
         <v/>
       </c>
       <c r="V65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 21518-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 21518-2023.docx", "A 21518-2023")</f>
         <v/>
       </c>
       <c r="W65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 21518-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 21518-2023.docx", "A 21518-2023")</f>
         <v/>
       </c>
       <c r="X65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 21518-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 21518-2023.docx", "A 21518-2023")</f>
         <v/>
       </c>
       <c r="Y65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 21518-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 21518-2023.docx", "A 21518-2023")</f>
         <v/>
       </c>
     </row>
@@ -6254,7 +6254,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6305,27 +6305,27 @@
         </is>
       </c>
       <c r="S66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 22014-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 22014-2023.xlsx", "A 22014-2023")</f>
         <v/>
       </c>
       <c r="T66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 22014-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 22014-2023.png", "A 22014-2023")</f>
         <v/>
       </c>
       <c r="V66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 22014-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 22014-2023.docx", "A 22014-2023")</f>
         <v/>
       </c>
       <c r="W66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 22014-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 22014-2023.docx", "A 22014-2023")</f>
         <v/>
       </c>
       <c r="X66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 22014-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 22014-2023.docx", "A 22014-2023")</f>
         <v/>
       </c>
       <c r="Y66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 22014-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 22014-2023.docx", "A 22014-2023")</f>
         <v/>
       </c>
     </row>
@@ -6339,7 +6339,7 @@
         <v>45167</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6390,27 +6390,27 @@
         </is>
       </c>
       <c r="S67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 39745-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/artfynd/A 39745-2023.xlsx", "A 39745-2023")</f>
         <v/>
       </c>
       <c r="T67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 39745-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/kartor/A 39745-2023.png", "A 39745-2023")</f>
         <v/>
       </c>
       <c r="V67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 39745-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 39745-2023.docx", "A 39745-2023")</f>
         <v/>
       </c>
       <c r="W67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 39745-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 39745-2023.docx", "A 39745-2023")</f>
         <v/>
       </c>
       <c r="X67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 39745-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 39745-2023.docx", "A 39745-2023")</f>
         <v/>
       </c>
       <c r="Y67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 39745-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 39745-2023.docx", "A 39745-2023")</f>
         <v/>
       </c>
     </row>
@@ -6424,7 +6424,7 @@
         <v>43315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6471,23 +6471,23 @@
       </c>
       <c r="R68" s="2" t="inlineStr"/>
       <c r="U68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 34030-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 34030-2018.png", "A 34030-2018")</f>
         <v/>
       </c>
       <c r="V68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 34030-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 34030-2018.docx", "A 34030-2018")</f>
         <v/>
       </c>
       <c r="W68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 34030-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 34030-2018.docx", "A 34030-2018")</f>
         <v/>
       </c>
       <c r="X68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 34030-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 34030-2018.docx", "A 34030-2018")</f>
         <v/>
       </c>
       <c r="Y68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 34030-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 34030-2018.docx", "A 34030-2018")</f>
         <v/>
       </c>
     </row>
@@ -6501,7 +6501,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43321</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43321</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43321</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43321</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43321</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43322</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43322</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43322</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43322</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43322</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43325</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43325</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43325</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43325</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43325</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43325</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43325</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43325</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43325</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43325</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43325</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43325</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43325</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43325</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43326</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43326</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43345</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43347</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43356</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43356</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43367</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43367</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43383</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43389</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43395</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43405</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>43410</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>43418</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>43418</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>43423</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43430</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43430</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43430</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43430</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43430</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43430</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43430</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43431</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43434</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43434</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>43438</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>43439</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>43439</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>43445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>43446</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43451</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43451</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43469</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43472</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43473</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43480</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>43482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43488</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43488</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43494</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>43494</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43498</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43501</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43508</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43508</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43514</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43517</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43522</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43522</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>43531</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>43535</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43538</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>43545</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>43545</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43558</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43558</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43559</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43566</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43567</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43570</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43578</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43581</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43581</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43584</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43585</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43587</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43591</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43591</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43591</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43592</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43600</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43605</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>43606</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>43606</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>43612</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>43612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>43613</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>43613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>43613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>43613</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>43613</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43625</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>43629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>43634</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>43634</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>43640</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>43640</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>43640</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>43640</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>43643</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>43648</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>43656</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>43662</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>43668</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>43668</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>43668</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>43674</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>43675</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>43678</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>43679</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>43680</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43680</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>43680</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>43680</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>43681</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>43682</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>43682</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>43683</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>43683</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>43683</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43684</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43689</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43689</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43691</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>43691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43691</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>43691</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>43691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43691</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43692</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43693</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43696</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43698</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43698</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43699</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43699</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43702</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43703</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43705</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43705</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43712</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43712</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43712</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18632,23 +18632,23 @@
       </c>
       <c r="R281" s="2" t="inlineStr"/>
       <c r="U281">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 44761-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/knärot/A 44761-2019.png", "A 44761-2019")</f>
         <v/>
       </c>
       <c r="V281">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 44761-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomål/A 44761-2019.docx", "A 44761-2019")</f>
         <v/>
       </c>
       <c r="W281">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 44761-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/klagomålsmail/A 44761-2019.docx", "A 44761-2019")</f>
         <v/>
       </c>
       <c r="X281">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 44761-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsyn/A 44761-2019.docx", "A 44761-2019")</f>
         <v/>
       </c>
       <c r="Y281">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 44761-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KALMAR/tillsynsmail/A 44761-2019.docx", "A 44761-2019")</f>
         <v/>
       </c>
     </row>
@@ -18662,7 +18662,7 @@
         <v>43713</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43714</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43717</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>43717</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>43717</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>43717</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>43717</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>43718</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>43718</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>43718</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43718</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43719</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>43719</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>43720</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>43721</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43721</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43724</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43726</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43727</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43727</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43727</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43728</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43728</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43732</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43733</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43746</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43749</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43755</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43756</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43756</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43761</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43763</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43763</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43763</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43766</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43769</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43774</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43776</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43777</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43777</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43777</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43777</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43780</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43780</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43782</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43784</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43784</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43784</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43784</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43791</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43796</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>43796</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>43803</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>43803</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>43803</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>43815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>43815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43829</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43832</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43832</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43832</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43832</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43840</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>43844</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>43846</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>43846</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>43859</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43865</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>43865</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>43867</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>43867</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>43867</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>43871</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>43871</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>43872</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>43873</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>43873</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>43875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>43875</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>43880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>43881</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>43886</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>43887</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>43887</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>43887</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>43894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>43900</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>43907</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>43907</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>43909</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>43915</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>43916</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>43916</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>43917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>43929</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>43936</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43941</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43950</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43956</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43977</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43984</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43999</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44007</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44020</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44032</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44041</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44041</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44047</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>44047</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>44053</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>44053</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>44053</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>44053</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44055</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44055</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>44055</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>44055</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>44060</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>44060</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>44061</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>44061</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44061</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44062</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44062</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>44074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44075</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44075</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44077</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44082</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44082</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44084</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44089</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44089</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44089</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44090</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44095</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44095</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44095</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44098</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44098</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44104</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44104</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44105</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44105</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44109</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44110</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44110</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44112</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44112</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44119</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44120</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44126</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44131</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44136</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44138</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44139</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44140</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44141</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44144</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44145</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44145</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44147</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44151</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44151</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44151</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44151</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44151</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44154</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44159</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44160</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44178</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>44182</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44182</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>44186</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>44187</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>44188</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>44192</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44193</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44193</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44201</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44209</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44210</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44210</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44214</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44214</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44214</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44215</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44217</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44218</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44220</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44229</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44230</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44230</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44230</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44230</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44230</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44236</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>44236</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>44236</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>44236</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44238</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>44241</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>44243</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>44244</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>44246</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>44250</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>44264</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31450,7 +31450,7 @@
         <v>44264</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31507,7 +31507,7 @@
         <v>44267</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44271</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44271</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44271</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44273</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44277</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44285</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44287</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44302</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44302</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44312</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44320</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44322</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44327</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44336</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44345</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44351</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44356</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44356</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44357</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44357</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>44363</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>44369</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         <v>44371</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32932,7 +32932,7 @@
         <v>44375</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>44377</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>44379</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>44382</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>44385</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>44385</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>44385</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>44386</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>44386</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44405</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>44413</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44417</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44419</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44421</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44432</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44435</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44435</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44435</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44438</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44438</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44447</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44448</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44448</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44454</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44454</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44455</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44456</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44457</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44462</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44467</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44474</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44475</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44475</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>44476</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>44477</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>44477</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>44480</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44482</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44482</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44484</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44489</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44489</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44497</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44497</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44497</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44498</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44498</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44502</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44502</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44502</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44511</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44522</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44522</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44529</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44531</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44544</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44566</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44574</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44581</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>44586</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>44588</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>44595</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>44595</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36585,7 +36585,7 @@
         <v>44602</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36642,7 +36642,7 @@
         <v>44615</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>44617</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36756,7 +36756,7 @@
         <v>44617</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36813,7 +36813,7 @@
         <v>44620</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36870,7 +36870,7 @@
         <v>44623</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44625</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44629</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37041,7 +37041,7 @@
         <v>44629</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44636</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37155,7 +37155,7 @@
         <v>44643</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37212,7 +37212,7 @@
         <v>44679</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         <v>44684</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37326,7 +37326,7 @@
         <v>44712</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37383,7 +37383,7 @@
         <v>44732</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37440,7 +37440,7 @@
         <v>44733</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         <v>44740</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37554,7 +37554,7 @@
         <v>44740</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37611,7 +37611,7 @@
         <v>44784</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44784</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37725,7 +37725,7 @@
         <v>44790</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37782,7 +37782,7 @@
         <v>44796</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44796</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37896,7 +37896,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44810</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44810</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44810</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44813</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44818</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44818</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38300,7 +38300,7 @@
         <v>44818</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38357,7 +38357,7 @@
         <v>44819</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38414,7 +38414,7 @@
         <v>44820</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44820</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44823</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44823</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44830</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44831</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38766,7 +38766,7 @@
         <v>44838</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38823,7 +38823,7 @@
         <v>44841</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38880,7 +38880,7 @@
         <v>44846</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38937,7 +38937,7 @@
         <v>44848</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38994,7 +38994,7 @@
         <v>44852</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
         <v>44855</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39113,7 +39113,7 @@
         <v>44858</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39170,7 +39170,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         <v>44861</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39284,7 +39284,7 @@
         <v>44862</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44864</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44904</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44909</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44909</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44914</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44924</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44924</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44924</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44924</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40087,7 +40087,7 @@
         <v>44931</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40144,7 +40144,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40201,7 +40201,7 @@
         <v>44949</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40258,7 +40258,7 @@
         <v>44949</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40315,7 +40315,7 @@
         <v>44963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44965</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40486,7 +40486,7 @@
         <v>44965</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44970</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44971</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40657,7 +40657,7 @@
         <v>44979</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>44979</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>44984</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40828,7 +40828,7 @@
         <v>44988</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40885,7 +40885,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>45001</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         <v>45007</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         <v>45007</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41227,7 +41227,7 @@
         <v>45019</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41284,7 +41284,7 @@
         <v>45027</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41341,7 +41341,7 @@
         <v>45028</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>45036</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41455,7 +41455,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41512,7 +41512,7 @@
         <v>45042</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>45044</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>45044</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>45050</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>45055</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>45061</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41854,7 +41854,7 @@
         <v>45063</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>45067</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45070</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45070</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>45070</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42159,7 +42159,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42216,7 +42216,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42273,7 +42273,7 @@
         <v>45071</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42330,7 +42330,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>45075</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42444,7 +42444,7 @@
         <v>45075</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>45075</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42615,7 +42615,7 @@
         <v>45076</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45082</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42734,7 +42734,7 @@
         <v>45083</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42791,7 +42791,7 @@
         <v>45086</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>45090</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42905,7 +42905,7 @@
         <v>45090</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42962,7 +42962,7 @@
         <v>45090</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45091</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43076,7 +43076,7 @@
         <v>45091</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>45091</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>45091</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43247,7 +43247,7 @@
         <v>45093</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43304,7 +43304,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43361,7 +43361,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>45097</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43475,7 +43475,7 @@
         <v>45097</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43532,7 +43532,7 @@
         <v>45099</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45099</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45099</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45103</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>45103</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>45104</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>45104</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43936,7 +43936,7 @@
         <v>45105</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43993,7 +43993,7 @@
         <v>45107</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44050,7 +44050,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44107,7 +44107,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44164,7 +44164,7 @@
         <v>45113</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44221,7 +44221,7 @@
         <v>45114</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44278,7 +44278,7 @@
         <v>45114</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>45114</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>45118</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>45118</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>45118</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>45119</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>45119</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44848,7 +44848,7 @@
         <v>45119</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44905,7 +44905,7 @@
         <v>45124</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44962,7 +44962,7 @@
         <v>45126</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>45126</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>45141</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>45153</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>45159</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>45161</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45304,7 +45304,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45361,7 +45361,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>45167</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45475,7 +45475,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>

--- a/Översikt KALMAR.xlsx
+++ b/Översikt KALMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44237</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44245</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44785</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44489</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44476</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44558</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43643</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44057</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44979</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44517</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44575</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44876</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43640</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43719</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43796</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44785</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44802</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44896</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44951</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>45105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43370</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43383</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43605</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43680</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43927</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43928</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44069</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44103</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>44152</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44260</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>44279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44466</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44726</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>44830</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44915</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44928</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44949</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>45007</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>45042</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45044</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45063</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45167</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43321</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43321</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43321</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43321</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43321</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43322</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43322</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43322</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43322</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43322</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43325</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43325</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43325</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43325</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43325</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43325</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43325</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43325</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43325</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43325</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43325</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43325</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43325</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43325</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43326</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43326</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43345</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43347</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43356</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43356</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43367</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43367</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43383</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43389</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43395</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43405</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>43410</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>43418</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>43418</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>43423</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43430</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43430</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43430</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43430</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43430</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43430</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43430</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43431</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43434</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43434</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>43438</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>43439</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>43439</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>43445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>43446</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43451</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43451</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43469</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43472</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43473</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43480</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>43482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43488</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43488</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43494</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>43494</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43498</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43501</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43508</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43508</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43514</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43517</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43522</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43522</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>43531</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>43535</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43538</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>43545</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>43545</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43558</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43558</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43559</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43566</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43567</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43570</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43578</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43581</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43581</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43584</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43585</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43587</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43591</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43591</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43591</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43592</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43600</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43605</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>43606</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>43606</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>43612</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>43612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>43613</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>43613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>43613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>43613</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>43613</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43625</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>43629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>43634</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>43634</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>43640</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>43640</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>43640</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>43640</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>43643</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>43648</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>43656</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>43662</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>43668</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>43668</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>43668</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>43674</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>43675</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>43678</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>43679</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>43680</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43680</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>43680</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>43680</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>43681</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>43682</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>43682</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>43683</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>43683</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>43683</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43684</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43689</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43689</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43691</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>43691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43691</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>43691</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>43691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43691</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43692</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43693</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43696</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43698</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43698</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43699</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43699</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43702</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43703</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43705</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43705</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43712</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43712</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43712</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>43713</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43714</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43717</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>43717</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>43717</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>43717</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>43717</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>43718</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>43718</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>43718</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43718</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43719</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>43719</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>43720</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>43721</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43721</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43724</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43726</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43727</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43727</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43727</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43728</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43728</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43732</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43733</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43746</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43749</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43755</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43756</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43756</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43761</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43763</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43763</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43763</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43766</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43769</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43774</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43776</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43777</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43777</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43777</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43777</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43780</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43780</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43782</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43784</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43784</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43784</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43784</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43791</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43796</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>43796</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>43803</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>43803</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>43803</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>43815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>43815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43829</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43832</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43832</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43832</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43832</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43840</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>43844</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>43846</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>43846</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>43859</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43865</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>43865</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>43867</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>43867</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>43867</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>43871</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>43871</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>43872</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>43873</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>43873</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>43875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>43875</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>43880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>43881</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>43886</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>43887</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>43887</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>43887</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>43894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>43900</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>43907</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>43907</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>43909</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>43915</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>43916</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>43916</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>43917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>43929</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>43936</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43941</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43950</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43956</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43977</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43984</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43999</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44007</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44020</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44032</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44041</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44041</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44047</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>44047</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>44053</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>44053</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>44053</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>44053</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44055</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44055</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>44055</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>44055</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>44060</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>44060</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>44061</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>44061</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44061</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44062</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44062</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>44074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44075</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44075</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44077</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44082</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44082</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44084</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44089</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44089</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44089</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44090</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44095</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44095</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44095</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44098</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44098</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44104</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44104</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44105</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44105</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44109</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44110</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44110</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44112</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44112</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44119</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44120</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44126</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44131</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44136</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44138</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44139</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44140</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44141</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44144</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44145</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44145</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44147</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44151</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44151</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44151</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44151</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44151</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44154</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44159</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44160</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44178</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>44182</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44182</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>44186</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>44187</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>44188</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>44192</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44193</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44193</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44201</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44209</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44210</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44210</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44214</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44214</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44214</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44215</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44217</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44218</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44220</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44229</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44230</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44230</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44230</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44230</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44230</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44236</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>44236</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>44236</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>44236</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44238</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>44241</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>44243</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>44244</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>44246</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>44250</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>44264</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31450,7 +31450,7 @@
         <v>44264</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31507,7 +31507,7 @@
         <v>44267</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44271</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44271</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44271</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44273</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44277</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44285</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44287</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44302</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44302</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44312</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44320</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44322</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44327</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44336</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44345</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44351</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44356</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44356</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44357</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44357</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>44363</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>44369</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         <v>44371</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32932,7 +32932,7 @@
         <v>44375</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>44377</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>44379</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>44382</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>44385</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>44385</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>44385</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>44386</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>44386</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44405</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>44413</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44417</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44419</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44421</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44432</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44435</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44435</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44435</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44438</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44438</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44447</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44448</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44448</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44454</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44454</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44455</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44456</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44457</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44462</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44467</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44474</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44475</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44475</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>44476</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>44477</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>44477</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>44480</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44482</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44482</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44484</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44489</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44489</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44497</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44497</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44497</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44498</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44498</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44502</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44502</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44502</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44511</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44522</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44522</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44529</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44531</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44544</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44566</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44574</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44581</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>44586</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>44588</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>44595</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>44595</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36585,7 +36585,7 @@
         <v>44602</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36642,7 +36642,7 @@
         <v>44615</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>44617</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36756,7 +36756,7 @@
         <v>44617</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36813,7 +36813,7 @@
         <v>44620</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36870,7 +36870,7 @@
         <v>44623</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44625</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44629</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37041,7 +37041,7 @@
         <v>44629</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44636</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37155,7 +37155,7 @@
         <v>44643</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37212,7 +37212,7 @@
         <v>44679</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         <v>44684</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37326,7 +37326,7 @@
         <v>44712</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37383,7 +37383,7 @@
         <v>44732</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37440,7 +37440,7 @@
         <v>44733</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         <v>44740</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37554,7 +37554,7 @@
         <v>44740</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37611,7 +37611,7 @@
         <v>44784</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44784</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37725,7 +37725,7 @@
         <v>44790</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37782,7 +37782,7 @@
         <v>44796</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44796</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37896,7 +37896,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44810</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44810</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44810</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44813</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44818</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44818</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38300,7 +38300,7 @@
         <v>44818</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38357,7 +38357,7 @@
         <v>44819</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38414,7 +38414,7 @@
         <v>44820</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44820</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44823</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44823</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44830</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44831</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38766,7 +38766,7 @@
         <v>44838</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38823,7 +38823,7 @@
         <v>44841</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38880,7 +38880,7 @@
         <v>44846</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38937,7 +38937,7 @@
         <v>44848</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38994,7 +38994,7 @@
         <v>44852</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
         <v>44855</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39113,7 +39113,7 @@
         <v>44858</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39170,7 +39170,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         <v>44861</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39284,7 +39284,7 @@
         <v>44862</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44864</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44904</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44909</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44909</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44914</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44924</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44924</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44924</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44924</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40087,7 +40087,7 @@
         <v>44931</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40144,7 +40144,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40201,7 +40201,7 @@
         <v>44949</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40258,7 +40258,7 @@
         <v>44949</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40315,7 +40315,7 @@
         <v>44963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44965</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40486,7 +40486,7 @@
         <v>44965</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44970</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44971</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40657,7 +40657,7 @@
         <v>44979</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>44979</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>44984</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40828,7 +40828,7 @@
         <v>44988</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40885,7 +40885,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>45001</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         <v>45007</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         <v>45007</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41227,7 +41227,7 @@
         <v>45019</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41284,7 +41284,7 @@
         <v>45027</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41341,7 +41341,7 @@
         <v>45028</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>45036</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41455,7 +41455,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41512,7 +41512,7 @@
         <v>45042</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>45044</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>45044</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>45050</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>45055</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>45061</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41854,7 +41854,7 @@
         <v>45063</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>45067</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45070</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45070</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>45070</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42159,7 +42159,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42216,7 +42216,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42273,7 +42273,7 @@
         <v>45071</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42330,7 +42330,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>45075</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42444,7 +42444,7 @@
         <v>45075</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>45075</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42615,7 +42615,7 @@
         <v>45076</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45082</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42734,7 +42734,7 @@
         <v>45083</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42791,7 +42791,7 @@
         <v>45086</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>45090</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42905,7 +42905,7 @@
         <v>45090</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42962,7 +42962,7 @@
         <v>45090</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45091</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43076,7 +43076,7 @@
         <v>45091</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>45091</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>45091</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43247,7 +43247,7 @@
         <v>45093</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43304,7 +43304,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43361,7 +43361,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>45097</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43475,7 +43475,7 @@
         <v>45097</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43532,7 +43532,7 @@
         <v>45099</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45099</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45099</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45103</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>45103</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>45104</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>45104</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43936,7 +43936,7 @@
         <v>45105</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43993,7 +43993,7 @@
         <v>45107</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44050,7 +44050,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44107,7 +44107,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44164,7 +44164,7 @@
         <v>45113</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44221,7 +44221,7 @@
         <v>45114</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44278,7 +44278,7 @@
         <v>45114</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>45114</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>45118</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>45118</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>45118</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>45119</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>45119</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44848,7 +44848,7 @@
         <v>45119</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44905,7 +44905,7 @@
         <v>45124</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44962,7 +44962,7 @@
         <v>45126</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>45126</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>45141</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>45153</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>45159</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>45161</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45304,7 +45304,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45361,7 +45361,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>45167</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45475,7 +45475,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>

--- a/Översikt KALMAR.xlsx
+++ b/Översikt KALMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44237</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44245</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44785</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44489</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44476</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44558</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43643</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44057</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44979</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44517</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44575</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44876</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43640</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43719</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43796</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44785</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44802</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44896</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44951</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>45105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43370</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43383</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43605</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43680</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43927</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43928</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44069</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44103</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>44152</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44260</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>44279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44466</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44726</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>44830</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44915</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44928</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44949</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>45007</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>45042</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45044</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45063</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45167</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43321</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43321</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43321</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43321</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43321</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43322</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43322</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43322</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43322</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43322</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43325</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43325</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43325</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43325</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43325</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43325</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43325</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43325</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43325</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43325</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43325</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43325</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43325</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43325</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43326</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43326</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43345</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43347</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43356</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43356</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43367</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43367</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43383</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43389</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43395</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43405</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>43410</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>43418</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>43418</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>43423</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43430</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43430</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43430</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43430</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43430</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43430</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43430</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43431</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43434</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43434</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>43438</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>43439</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>43439</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>43445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>43446</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43451</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43451</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43469</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43472</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43473</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43480</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>43482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43488</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43488</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43494</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>43494</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43498</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43501</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43508</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43508</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43514</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43517</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43522</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43522</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>43531</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>43535</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43538</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>43545</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>43545</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43558</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43558</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43559</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43566</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43567</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43570</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43578</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43581</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43581</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43584</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43585</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43587</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43591</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43591</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43591</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43592</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43600</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43605</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>43606</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>43606</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>43612</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>43612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>43613</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>43613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>43613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>43613</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>43613</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43625</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>43629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>43634</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>43634</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>43640</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>43640</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>43640</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>43640</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>43643</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>43648</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>43656</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>43662</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>43668</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>43668</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>43668</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>43674</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>43675</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>43678</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>43679</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>43680</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43680</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>43680</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>43680</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>43681</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>43682</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>43682</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>43683</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>43683</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>43683</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43684</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43689</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43689</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43691</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>43691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43691</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>43691</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>43691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43691</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43692</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43693</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43696</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43698</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43698</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43699</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43699</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43702</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43703</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43705</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43705</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43712</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43712</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43712</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>43713</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43714</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43717</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>43717</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>43717</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>43717</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>43717</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>43718</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>43718</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>43718</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43718</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43719</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>43719</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>43720</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>43721</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43721</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43724</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43726</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43727</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43727</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43727</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43728</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43728</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43732</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43733</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43746</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43749</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43755</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43756</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43756</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43761</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43763</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43763</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43763</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43766</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43769</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43774</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43776</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43777</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43777</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43777</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43777</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43780</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43780</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43782</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43784</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43784</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43784</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43784</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43791</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43796</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>43796</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>43803</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>43803</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>43803</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>43815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>43815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43829</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43832</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43832</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43832</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43832</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43840</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>43844</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>43846</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>43846</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>43859</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43865</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>43865</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>43867</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>43867</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>43867</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>43871</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>43871</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>43872</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>43873</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>43873</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>43875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>43875</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>43880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>43881</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>43886</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>43887</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>43887</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>43887</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>43894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>43900</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>43907</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>43907</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>43909</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>43915</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>43916</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>43916</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>43917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>43929</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>43936</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43941</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43950</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43956</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43977</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43984</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43999</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44007</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44020</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44032</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44041</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44041</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44047</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>44047</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>44053</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>44053</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>44053</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>44053</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44055</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44055</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>44055</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>44055</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>44060</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>44060</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>44061</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>44061</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44061</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44062</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44062</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>44074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44075</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44075</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44077</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44082</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44082</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44084</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44089</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44089</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44089</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44090</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44095</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44095</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44095</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44098</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44098</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44104</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44104</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44105</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44105</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44109</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44110</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44110</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44112</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44112</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44119</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44120</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44126</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44131</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44136</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44138</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44139</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44140</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44141</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44144</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44145</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44145</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44147</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44151</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44151</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44151</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44151</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44151</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44154</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44159</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44160</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44178</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>44182</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44182</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>44186</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>44187</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>44188</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>44192</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44193</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44193</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44201</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44209</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44210</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44210</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44214</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44214</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44214</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44215</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44217</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44218</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44220</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44229</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44230</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44230</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44230</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44230</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44230</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44236</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>44236</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>44236</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>44236</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44238</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>44241</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>44243</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>44244</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>44246</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>44250</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>44264</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31450,7 +31450,7 @@
         <v>44264</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31507,7 +31507,7 @@
         <v>44267</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44271</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44271</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44271</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44273</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44277</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44285</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44287</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44302</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44302</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44312</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44320</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44322</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44327</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44336</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44345</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44351</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44356</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44356</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44357</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44357</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>44363</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>44369</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         <v>44371</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32932,7 +32932,7 @@
         <v>44375</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>44377</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>44379</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>44382</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>44385</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>44385</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>44385</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>44386</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>44386</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44405</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>44413</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44417</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44419</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44421</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44432</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44435</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44435</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44435</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44438</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44438</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44447</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44448</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44448</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44454</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44454</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44455</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44456</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44457</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44462</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44467</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44474</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44475</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44475</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>44476</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>44477</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>44477</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>44480</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44482</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44482</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44484</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44489</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44489</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44497</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44497</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44497</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44498</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44498</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44502</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44502</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44502</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44511</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44522</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44522</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44529</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44531</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44544</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44566</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44574</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44581</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>44586</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>44588</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>44595</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>44595</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36585,7 +36585,7 @@
         <v>44602</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36642,7 +36642,7 @@
         <v>44615</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>44617</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36756,7 +36756,7 @@
         <v>44617</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36813,7 +36813,7 @@
         <v>44620</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36870,7 +36870,7 @@
         <v>44623</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44625</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44629</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37041,7 +37041,7 @@
         <v>44629</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44636</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37155,7 +37155,7 @@
         <v>44643</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37212,7 +37212,7 @@
         <v>44679</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         <v>44684</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37326,7 +37326,7 @@
         <v>44712</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37383,7 +37383,7 @@
         <v>44732</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37440,7 +37440,7 @@
         <v>44733</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         <v>44740</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37554,7 +37554,7 @@
         <v>44740</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37611,7 +37611,7 @@
         <v>44784</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44784</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37725,7 +37725,7 @@
         <v>44790</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37782,7 +37782,7 @@
         <v>44796</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44796</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37896,7 +37896,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44810</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44810</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44810</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44813</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44818</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44818</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38300,7 +38300,7 @@
         <v>44818</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38357,7 +38357,7 @@
         <v>44819</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38414,7 +38414,7 @@
         <v>44820</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44820</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44823</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44823</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44830</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44831</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38766,7 +38766,7 @@
         <v>44838</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38823,7 +38823,7 @@
         <v>44841</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38880,7 +38880,7 @@
         <v>44846</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38937,7 +38937,7 @@
         <v>44848</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38994,7 +38994,7 @@
         <v>44852</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
         <v>44855</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39113,7 +39113,7 @@
         <v>44858</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39170,7 +39170,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         <v>44861</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39284,7 +39284,7 @@
         <v>44862</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44864</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44904</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44909</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44909</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44914</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44924</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44924</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44924</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44924</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40087,7 +40087,7 @@
         <v>44931</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40144,7 +40144,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40201,7 +40201,7 @@
         <v>44949</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40258,7 +40258,7 @@
         <v>44949</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40315,7 +40315,7 @@
         <v>44963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44965</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40486,7 +40486,7 @@
         <v>44965</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44970</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44971</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40657,7 +40657,7 @@
         <v>44979</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>44979</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>44984</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40828,7 +40828,7 @@
         <v>44988</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40885,7 +40885,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>45001</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         <v>45007</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         <v>45007</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41227,7 +41227,7 @@
         <v>45019</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41284,7 +41284,7 @@
         <v>45027</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41341,7 +41341,7 @@
         <v>45028</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>45036</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41455,7 +41455,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41512,7 +41512,7 @@
         <v>45042</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>45044</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>45044</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>45050</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>45055</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>45061</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41854,7 +41854,7 @@
         <v>45063</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>45067</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45070</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45070</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>45070</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42159,7 +42159,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42216,7 +42216,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42273,7 +42273,7 @@
         <v>45071</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42330,7 +42330,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>45075</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42444,7 +42444,7 @@
         <v>45075</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>45075</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42615,7 +42615,7 @@
         <v>45076</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45082</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42734,7 +42734,7 @@
         <v>45083</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42791,7 +42791,7 @@
         <v>45086</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>45090</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42905,7 +42905,7 @@
         <v>45090</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42962,7 +42962,7 @@
         <v>45090</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45091</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43076,7 +43076,7 @@
         <v>45091</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>45091</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>45091</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43247,7 +43247,7 @@
         <v>45093</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43304,7 +43304,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43361,7 +43361,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>45097</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43475,7 +43475,7 @@
         <v>45097</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43532,7 +43532,7 @@
         <v>45099</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45099</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45099</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45103</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>45103</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>45104</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>45104</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43936,7 +43936,7 @@
         <v>45105</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43993,7 +43993,7 @@
         <v>45107</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44050,7 +44050,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44107,7 +44107,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44164,7 +44164,7 @@
         <v>45113</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44221,7 +44221,7 @@
         <v>45114</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44278,7 +44278,7 @@
         <v>45114</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>45114</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>45118</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>45118</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>45118</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>45119</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>45119</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44848,7 +44848,7 @@
         <v>45119</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44905,7 +44905,7 @@
         <v>45124</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44962,7 +44962,7 @@
         <v>45126</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>45126</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>45141</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>45153</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>45159</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>45161</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45304,7 +45304,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45361,7 +45361,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>45167</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45475,7 +45475,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>

--- a/Översikt KALMAR.xlsx
+++ b/Översikt KALMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44237</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44245</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44785</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44489</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44476</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>44558</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>44439</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>43591</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43643</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>43686</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>44057</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>44979</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>43613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44489</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44517</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>44575</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
         <v>44785</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         <v>44827</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         <v>44853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>44876</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43640</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43719</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43796</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44785</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>44802</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         <v>44896</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44951</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>45105</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43370</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>43383</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43402</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43531</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         <v>43605</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43614</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>43680</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43731</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4362,7 +4362,7 @@
         <v>43734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43854</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>43927</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43928</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>44069</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>44103</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4872,7 +4872,7 @@
         <v>44152</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44260</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>44279</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44466</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44487</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44489</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>44726</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         <v>44830</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
         <v>44915</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44928</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>44949</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         <v>45007</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
         <v>45042</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>45044</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45063</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>45069</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>45167</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>43315</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43321</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43321</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6672,7 +6672,7 @@
         <v>43321</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         <v>43321</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         <v>43321</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6843,7 +6843,7 @@
         <v>43321</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43321</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>43321</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>43321</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>43322</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
         <v>43322</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>43322</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>43322</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43322</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>43325</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7413,7 +7413,7 @@
         <v>43325</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>43325</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>43325</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>43325</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
         <v>43325</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>43325</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>43325</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7812,7 +7812,7 @@
         <v>43325</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7869,7 +7869,7 @@
         <v>43325</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
         <v>43325</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>43325</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>43325</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>43325</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>43326</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>43326</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         <v>43341</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43345</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43347</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43356</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43356</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43367</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43367</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43383</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43389</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43395</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>43405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>43405</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>43405</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>43410</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>43418</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>43418</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>43423</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>43423</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>43426</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>43430</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>43430</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>43430</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>43430</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>43430</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>43430</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>43430</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>43431</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>43431</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>43434</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>43434</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>43434</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>43438</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>43439</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>43439</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>43445</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>43446</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>43451</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>43451</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>43451</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>43469</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>43472</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>43472</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>43472</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>43473</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>43473</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>43480</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>43481</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>43482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>43482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>43488</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43488</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11916,7 +11916,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43494</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12030,7 +12030,7 @@
         <v>43494</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43498</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43500</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43501</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43508</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43508</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43514</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43517</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43522</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43522</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>43531</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>43535</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         <v>43538</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>43545</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>43545</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>43545</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         <v>43556</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43558</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43558</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43559</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>43566</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>43567</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>43570</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>43578</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13683,7 +13683,7 @@
         <v>43578</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>43578</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>43581</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>43581</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13911,7 +13911,7 @@
         <v>43584</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>43585</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14025,7 +14025,7 @@
         <v>43587</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>43591</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14139,7 +14139,7 @@
         <v>43591</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14196,7 +14196,7 @@
         <v>43591</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14253,7 +14253,7 @@
         <v>43592</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14310,7 +14310,7 @@
         <v>43600</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>43600</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>43605</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14481,7 +14481,7 @@
         <v>43606</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>43606</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>43612</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         <v>43612</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>43613</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>43613</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>43613</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>43613</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14937,7 +14937,7 @@
         <v>43613</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
         <v>43620</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43625</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>43629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>43634</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>43634</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         <v>43640</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>43640</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15393,7 +15393,7 @@
         <v>43640</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15450,7 +15450,7 @@
         <v>43640</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>43643</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>43648</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>43656</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>43662</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>43668</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>43668</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>43668</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>43674</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15963,7 +15963,7 @@
         <v>43675</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>43678</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16077,7 +16077,7 @@
         <v>43679</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16134,7 +16134,7 @@
         <v>43680</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>43680</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>43680</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>43680</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>43681</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>43682</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>43682</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>43683</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>43683</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>43683</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>43684</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>43689</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>43689</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43691</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>43691</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43691</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17046,7 +17046,7 @@
         <v>43691</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>43691</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43691</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43691</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43692</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43693</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43696</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43698</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43698</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43699</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43699</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43702</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43703</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43704</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43705</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43705</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43705</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43706</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18357,7 +18357,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>43712</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>43712</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>43712</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>43713</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
         <v>43713</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>43714</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18833,7 +18833,7 @@
         <v>43717</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>43717</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18947,7 +18947,7 @@
         <v>43717</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>43717</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>43717</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>43718</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>43718</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>43718</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>43718</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43719</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>43719</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>43720</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19517,7 +19517,7 @@
         <v>43721</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43721</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19631,7 +19631,7 @@
         <v>43724</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>43726</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>43727</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>43727</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>43727</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19916,7 +19916,7 @@
         <v>43728</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19973,7 +19973,7 @@
         <v>43728</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>43732</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20087,7 +20087,7 @@
         <v>43733</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20144,7 +20144,7 @@
         <v>43746</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43749</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>43755</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43756</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>43756</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>43761</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>43763</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>43763</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>43763</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>43766</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>43769</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>43774</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>43776</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>43776</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>43777</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>43777</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>43777</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43777</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>43780</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43780</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43782</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43784</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43784</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43784</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43784</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43791</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43796</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>43796</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>43803</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>43803</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21869,7 +21869,7 @@
         <v>43803</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21926,7 +21926,7 @@
         <v>43815</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>43815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         <v>43815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22097,7 +22097,7 @@
         <v>43817</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>43829</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22211,7 +22211,7 @@
         <v>43832</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>43832</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>43832</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>43832</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>43840</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>43844</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>43846</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>43846</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>43859</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>43865</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>43865</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>43867</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>43867</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>43867</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>43871</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>43871</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>43872</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>43873</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>43873</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>43875</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>43875</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>43880</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>43881</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>43886</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>43887</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>43887</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>43887</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>43894</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>43894</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>43899</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>43900</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>43907</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>43907</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>43909</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>43914</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>43915</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>43916</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>43916</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>43917</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>43929</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>43936</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>43941</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>43949</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>43950</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>43956</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>43963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>43977</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>43984</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>43999</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44007</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44020</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44032</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44041</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44041</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44047</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>44047</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>44047</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>44048</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>44053</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25574,7 +25574,7 @@
         <v>44053</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25631,7 +25631,7 @@
         <v>44053</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25688,7 +25688,7 @@
         <v>44053</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44055</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44055</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         <v>44055</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
         <v>44055</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25973,7 +25973,7 @@
         <v>44060</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26030,7 +26030,7 @@
         <v>44060</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26087,7 +26087,7 @@
         <v>44061</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>44061</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>44061</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>44062</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44062</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26372,7 +26372,7 @@
         <v>44074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26429,7 +26429,7 @@
         <v>44074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26486,7 +26486,7 @@
         <v>44074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26543,7 +26543,7 @@
         <v>44075</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>44075</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26657,7 +26657,7 @@
         <v>44077</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26714,7 +26714,7 @@
         <v>44082</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44082</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26828,7 +26828,7 @@
         <v>44084</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26885,7 +26885,7 @@
         <v>44089</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26942,7 +26942,7 @@
         <v>44089</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>44089</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44089</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27113,7 +27113,7 @@
         <v>44090</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27170,7 +27170,7 @@
         <v>44095</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27227,7 +27227,7 @@
         <v>44095</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27284,7 +27284,7 @@
         <v>44095</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27341,7 +27341,7 @@
         <v>44098</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>44098</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27455,7 +27455,7 @@
         <v>44104</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27512,7 +27512,7 @@
         <v>44104</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27569,7 +27569,7 @@
         <v>44105</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27626,7 +27626,7 @@
         <v>44105</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27683,7 +27683,7 @@
         <v>44109</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27740,7 +27740,7 @@
         <v>44110</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27797,7 +27797,7 @@
         <v>44110</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27854,7 +27854,7 @@
         <v>44111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27911,7 +27911,7 @@
         <v>44112</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27968,7 +27968,7 @@
         <v>44112</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28025,7 +28025,7 @@
         <v>44119</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28082,7 +28082,7 @@
         <v>44120</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44126</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28196,7 +28196,7 @@
         <v>44130</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
         <v>44131</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>44136</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28367,7 +28367,7 @@
         <v>44138</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28424,7 +28424,7 @@
         <v>44139</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>44140</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28538,7 +28538,7 @@
         <v>44141</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28595,7 +28595,7 @@
         <v>44144</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>44145</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28709,7 +28709,7 @@
         <v>44145</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28766,7 +28766,7 @@
         <v>44147</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28823,7 +28823,7 @@
         <v>44151</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28880,7 +28880,7 @@
         <v>44151</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28937,7 +28937,7 @@
         <v>44151</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28994,7 +28994,7 @@
         <v>44151</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29056,7 +29056,7 @@
         <v>44151</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29113,7 +29113,7 @@
         <v>44154</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29170,7 +29170,7 @@
         <v>44159</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44160</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44178</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>44182</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29398,7 +29398,7 @@
         <v>44182</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29455,7 +29455,7 @@
         <v>44186</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>44187</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>44188</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>44192</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         <v>44193</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>44193</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>44201</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>44209</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29911,7 +29911,7 @@
         <v>44210</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29968,7 +29968,7 @@
         <v>44210</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30025,7 +30025,7 @@
         <v>44214</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30082,7 +30082,7 @@
         <v>44214</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30139,7 +30139,7 @@
         <v>44214</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>44215</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30253,7 +30253,7 @@
         <v>44217</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30310,7 +30310,7 @@
         <v>44218</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44220</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30424,7 +30424,7 @@
         <v>44229</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30481,7 +30481,7 @@
         <v>44230</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44230</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>44230</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44230</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>44230</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>44230</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44236</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30880,7 +30880,7 @@
         <v>44236</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>44236</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>44236</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44238</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>44241</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>44243</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>44244</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>44246</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         <v>44250</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>44264</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31450,7 +31450,7 @@
         <v>44264</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31507,7 +31507,7 @@
         <v>44267</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
         <v>44271</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31621,7 +31621,7 @@
         <v>44271</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31678,7 +31678,7 @@
         <v>44271</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31735,7 +31735,7 @@
         <v>44273</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>44277</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>44285</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         <v>44287</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         <v>44302</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32020,7 +32020,7 @@
         <v>44302</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>44312</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>44320</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>44322</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32248,7 +32248,7 @@
         <v>44327</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32305,7 +32305,7 @@
         <v>44336</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32362,7 +32362,7 @@
         <v>44345</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44351</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44351</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32533,7 +32533,7 @@
         <v>44356</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32590,7 +32590,7 @@
         <v>44356</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44357</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44357</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32761,7 +32761,7 @@
         <v>44363</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32818,7 +32818,7 @@
         <v>44369</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32875,7 +32875,7 @@
         <v>44371</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32932,7 +32932,7 @@
         <v>44375</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32989,7 +32989,7 @@
         <v>44377</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33046,7 +33046,7 @@
         <v>44379</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33103,7 +33103,7 @@
         <v>44382</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33160,7 +33160,7 @@
         <v>44385</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33217,7 +33217,7 @@
         <v>44385</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33274,7 +33274,7 @@
         <v>44385</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33331,7 +33331,7 @@
         <v>44386</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>44386</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44405</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33502,7 +33502,7 @@
         <v>44413</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44417</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44419</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44421</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33730,7 +33730,7 @@
         <v>44432</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         <v>44435</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33844,7 +33844,7 @@
         <v>44435</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33901,7 +33901,7 @@
         <v>44435</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44438</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34015,7 +34015,7 @@
         <v>44438</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34072,7 +34072,7 @@
         <v>44447</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34129,7 +34129,7 @@
         <v>44448</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34186,7 +34186,7 @@
         <v>44448</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34243,7 +34243,7 @@
         <v>44454</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34300,7 +34300,7 @@
         <v>44454</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34357,7 +34357,7 @@
         <v>44455</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34414,7 +34414,7 @@
         <v>44456</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34471,7 +34471,7 @@
         <v>44457</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>44462</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>44467</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>44474</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>44475</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34761,7 +34761,7 @@
         <v>44475</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>44476</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>44477</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>44477</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>44480</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>44482</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35103,7 +35103,7 @@
         <v>44482</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35160,7 +35160,7 @@
         <v>44484</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         <v>44489</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35274,7 +35274,7 @@
         <v>44489</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35331,7 +35331,7 @@
         <v>44496</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35388,7 +35388,7 @@
         <v>44497</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35445,7 +35445,7 @@
         <v>44497</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>44497</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35559,7 +35559,7 @@
         <v>44498</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35616,7 +35616,7 @@
         <v>44498</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35673,7 +35673,7 @@
         <v>44502</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35730,7 +35730,7 @@
         <v>44502</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35787,7 +35787,7 @@
         <v>44502</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35844,7 +35844,7 @@
         <v>44511</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         <v>44522</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35958,7 +35958,7 @@
         <v>44522</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36015,7 +36015,7 @@
         <v>44529</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36072,7 +36072,7 @@
         <v>44531</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36129,7 +36129,7 @@
         <v>44544</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36186,7 +36186,7 @@
         <v>44566</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36243,7 +36243,7 @@
         <v>44574</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>44581</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>44586</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>44588</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36471,7 +36471,7 @@
         <v>44595</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36528,7 +36528,7 @@
         <v>44595</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36585,7 +36585,7 @@
         <v>44602</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36642,7 +36642,7 @@
         <v>44615</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>44617</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36756,7 +36756,7 @@
         <v>44617</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36813,7 +36813,7 @@
         <v>44620</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36870,7 +36870,7 @@
         <v>44623</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36927,7 +36927,7 @@
         <v>44625</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36984,7 +36984,7 @@
         <v>44629</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37041,7 +37041,7 @@
         <v>44629</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37098,7 +37098,7 @@
         <v>44636</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37155,7 +37155,7 @@
         <v>44643</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37212,7 +37212,7 @@
         <v>44679</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         <v>44684</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37326,7 +37326,7 @@
         <v>44712</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37383,7 +37383,7 @@
         <v>44732</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37440,7 +37440,7 @@
         <v>44733</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37497,7 +37497,7 @@
         <v>44740</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37554,7 +37554,7 @@
         <v>44740</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37611,7 +37611,7 @@
         <v>44784</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37668,7 +37668,7 @@
         <v>44784</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37725,7 +37725,7 @@
         <v>44790</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37782,7 +37782,7 @@
         <v>44796</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37839,7 +37839,7 @@
         <v>44796</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37896,7 +37896,7 @@
         <v>44804</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37958,7 +37958,7 @@
         <v>44810</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38015,7 +38015,7 @@
         <v>44810</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38072,7 +38072,7 @@
         <v>44810</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38129,7 +38129,7 @@
         <v>44813</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38186,7 +38186,7 @@
         <v>44818</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38243,7 +38243,7 @@
         <v>44818</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38300,7 +38300,7 @@
         <v>44818</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38357,7 +38357,7 @@
         <v>44819</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38414,7 +38414,7 @@
         <v>44820</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>44820</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>44823</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38590,7 +38590,7 @@
         <v>44823</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38647,7 +38647,7 @@
         <v>44830</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         <v>44831</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38766,7 +38766,7 @@
         <v>44838</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38823,7 +38823,7 @@
         <v>44841</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38880,7 +38880,7 @@
         <v>44846</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38937,7 +38937,7 @@
         <v>44848</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38994,7 +38994,7 @@
         <v>44852</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
         <v>44855</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39113,7 +39113,7 @@
         <v>44858</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39170,7 +39170,7 @@
         <v>44861</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39227,7 +39227,7 @@
         <v>44861</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39284,7 +39284,7 @@
         <v>44862</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44864</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44895</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>44904</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39569,7 +39569,7 @@
         <v>44909</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39626,7 +39626,7 @@
         <v>44909</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39683,7 +39683,7 @@
         <v>44914</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39740,7 +39740,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39797,7 +39797,7 @@
         <v>44924</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44924</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44924</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44924</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44930</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40087,7 +40087,7 @@
         <v>44931</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40144,7 +40144,7 @@
         <v>44939</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40201,7 +40201,7 @@
         <v>44949</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40258,7 +40258,7 @@
         <v>44949</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40315,7 +40315,7 @@
         <v>44963</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44965</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40486,7 +40486,7 @@
         <v>44965</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40543,7 +40543,7 @@
         <v>44970</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40600,7 +40600,7 @@
         <v>44971</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40657,7 +40657,7 @@
         <v>44979</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40714,7 +40714,7 @@
         <v>44979</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40771,7 +40771,7 @@
         <v>44984</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40828,7 +40828,7 @@
         <v>44988</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40885,7 +40885,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40942,7 +40942,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40999,7 +40999,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41056,7 +41056,7 @@
         <v>45001</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         <v>45007</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41170,7 +41170,7 @@
         <v>45007</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41227,7 +41227,7 @@
         <v>45019</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41284,7 +41284,7 @@
         <v>45027</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41341,7 +41341,7 @@
         <v>45028</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>45036</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41455,7 +41455,7 @@
         <v>45042</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41512,7 +41512,7 @@
         <v>45042</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41569,7 +41569,7 @@
         <v>45044</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41626,7 +41626,7 @@
         <v>45044</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41683,7 +41683,7 @@
         <v>45050</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>45055</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>45061</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41854,7 +41854,7 @@
         <v>45063</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41916,7 +41916,7 @@
         <v>45067</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>45070</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42035,7 +42035,7 @@
         <v>45070</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42097,7 +42097,7 @@
         <v>45070</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42159,7 +42159,7 @@
         <v>45071</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42216,7 +42216,7 @@
         <v>45071</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42273,7 +42273,7 @@
         <v>45071</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42330,7 +42330,7 @@
         <v>45072</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42387,7 +42387,7 @@
         <v>45075</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42444,7 +42444,7 @@
         <v>45075</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42501,7 +42501,7 @@
         <v>45075</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42558,7 +42558,7 @@
         <v>45075</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42615,7 +42615,7 @@
         <v>45076</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42677,7 +42677,7 @@
         <v>45082</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42734,7 +42734,7 @@
         <v>45083</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42791,7 +42791,7 @@
         <v>45086</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>45090</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42905,7 +42905,7 @@
         <v>45090</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42962,7 +42962,7 @@
         <v>45090</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43019,7 +43019,7 @@
         <v>45091</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43076,7 +43076,7 @@
         <v>45091</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43133,7 +43133,7 @@
         <v>45091</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43190,7 +43190,7 @@
         <v>45091</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43247,7 +43247,7 @@
         <v>45093</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43304,7 +43304,7 @@
         <v>45097</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43361,7 +43361,7 @@
         <v>45097</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>45097</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43475,7 +43475,7 @@
         <v>45097</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43532,7 +43532,7 @@
         <v>45099</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>45099</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>45099</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>45103</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>45103</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>45104</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>45104</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43936,7 +43936,7 @@
         <v>45105</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43993,7 +43993,7 @@
         <v>45107</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44050,7 +44050,7 @@
         <v>45110</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44107,7 +44107,7 @@
         <v>45113</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44164,7 +44164,7 @@
         <v>45113</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44221,7 +44221,7 @@
         <v>45114</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44278,7 +44278,7 @@
         <v>45114</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44335,7 +44335,7 @@
         <v>45114</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44392,7 +44392,7 @@
         <v>45114</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>45114</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>45114</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>45118</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>45118</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>45118</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>45119</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>45119</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44848,7 +44848,7 @@
         <v>45119</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44905,7 +44905,7 @@
         <v>45124</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44962,7 +44962,7 @@
         <v>45126</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45019,7 +45019,7 @@
         <v>45126</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45076,7 +45076,7 @@
         <v>45141</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45133,7 +45133,7 @@
         <v>45153</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45190,7 +45190,7 @@
         <v>45159</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45247,7 +45247,7 @@
         <v>45161</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45304,7 +45304,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45361,7 +45361,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45418,7 +45418,7 @@
         <v>45167</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45475,7 +45475,7 @@
         <v>45167</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>

--- a/Översikt KALMAR.xlsx
+++ b/Översikt KALMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44237</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44245</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>44785</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>44489</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,7 +972,7 @@
         <v>44454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44476</v>